--- a/User_Stories.xlsx
+++ b/User_Stories.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Διεργασία" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Product backlog Pithia" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Acceptance" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
   <si>
     <t xml:space="preserve"> Βήματα διεργασίας SCRUM</t>
   </si>
@@ -148,123 +149,1404 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ως μη-ταυτοποιημένος χρήστης θέλω να  </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ως ταυτοποιημένος χρήστης θέλω να κάνω </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">δημιουργήσω λογαριασμό </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t xml:space="preserve">login</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Στο UI εισάγω τα διαπιστευτήριά μου (αριθμος μητρωου, κωδικος) με τα οποία, μετά τον έλεγχο, εισάγομαι στην εφαρμογή.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ως ταυτοποιημένος χρήστης θέλω να κάνω </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">logout</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Πατώντας "Logout",εξέρχομαι από την εφαρμογή.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US03</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ως φοιτητής , θέλω να βλέπω τη </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Bαθμολογία</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> των μαθημάτων μου.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Πατώντας  την επιλογή ¨Βαθμολογία” από το μενού,θα μπορεί ο φοιτητης/τρια χρήστης να βλέπει τις βαθμολογίες του. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως  φοιτητής, θέλω να βλέπω  τη Δηλωσή μου.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Πατώντας την επιλογή “ Δήλωση” από το μενού,θα μπορεί ο ταυτοποιήμενος χρήστης να δει τα μαθήματα που έχει δηλώσει.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητής,θέλω να έχω δυνατότητα να Εισάγω  Βαθμολογία στους μαθητές που παρακολουθούν το μάθημα/μαθήματα που διδάσκω.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Δηλωση Βαθμολογιας" το οποιο θα οδηγει τον καθηγητη στη φορμα δηλωσης βαθμολογιας φοιτητων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να δημιουργω χ αριθμο κωδικων για χ φοιττηες.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Φοιτητες” η οποια θα τον οδηγει στο περιβαλλον διαχειρησης φοιτητων.Εκει,εκτος αλλων,θα υπαρχει κουμπι “Δημιουργια Κωδικων Φοιτητων” με το οποιο θα μπορει να δημιουργει παραμετρικο αριθμο φοιτητων</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο μαθημα,θελω να εχω δυνατοτητα να οριζω τον αλγοριθμο βαση του οποιου θα υπολογιζεται ο τελικος βαθμος των φοιτητων στο μαθημα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα μαθηματα μου” οπου,διαλεγωντας το μαθημα,θα του ανοιγει φορμα οπου,εκτος αλλων,θα μπορει να δηλωνει ποσοστα συμμετοχης διαφορων βαθμων του μαθηματος στον τελικο βαθμο(πχ,εργαστηριο,θεωρια και εργασιας)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως logout χρηστης θέλω να κάνω login για να εχω προσβαση στο συστημα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Κριτήρια αποδοχής</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">για να έχω πρόσβαση στο σύστημα</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Στο UI εισάγω τα στοιχεία μου (ονοματεπώνυμο, κλπ, email, username, passw) και δημιουργείται ο λογαριασμός μου</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ως ταυτοποιημένος χρήστης θέλω να κάνω </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">login</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Στο UI εισάγω τα διαπιστευτήριά μου (username, passw) με τα οποία, μετά τον έλεγχο, εισάγομαι στην εφαρμογή</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US03</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ως ταυτοποιημένος χρήστης θέλω να κάνω </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t xml:space="preserve">Logoout χρηστης μπαινει στο συστημα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι logout και ειμαι στην φορμα εισαγωγης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">βαζω το ονομα χρηστη και τον κωδικο μου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω το κουμπι Συνδεση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα μου επιτρεπει προσβαση</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00A933"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">και μου εμφανιζει το παραθυρο εφαρμογης με το μενου επιλογων.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως ταυτοποιημένος χρήστης θέλω να κάνω logout.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">logout</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Πατώντας "Logout" εξέρχομαι από την εφαρμογή και ενημερώνεται ο λογαριασμός μου</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως καθηγητης,θελω να εχω δυνατοτητα να βαζω βαθμολογια στους μαθητες που παρακολουθουν το μαθημα/μαθηματα που διδασκω.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Δηλωση Βαθμολογιας" το οποιο θα οδηγει τον καθηγητη στη φορμα δηλωσης βαθμολογιας φοιτητων.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω και να αφαιρω καθηγητη/-ες απο το συστημα.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Προσθηκη/Αφαιρεση Καθηγητη" το οποιο θα τον οδηγει στο περιβαλλον διαχειρισης καθηγητων.</t>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Συνδεδεμενος χρηστης βγαινει απο το συστημα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταων στο μενου το κουμπι Logout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω “Ναι” οταν το συστημα με ρωταει αν θελω να βγω,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με αποσυνδεει και με πηγαινει στη φορμα εισαγωγης.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ως φοιτητής , θέλω να βλέπω τη </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Bαθμολογία</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve"> των μαθημάτων μου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ο Φοιτητής</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  βλέπει τη βαθμολογία των μαθημάτων του</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ότι είμαι φοιτητής </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατάω το κουμπί “ Βαθμολογία “</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το σύστημα θα μου εμφανίζει τα μαθήματα που έχω εξεταστεί και τη βαθμολογία τους</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ως  φοιτητής, θέλω να βλέπω  τη </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Δηλωσή</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve"> μου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ο Φοιτητής  βλέπει τα μαθήματα που έχει δηλώσει στο</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">τρέχον εξάμηνο και σε παλαιότερα</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ότι είμαι φοιτητής</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατάω το κουμπί “Δήλωση” </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το σύστημα θα μου εμφανίζει τα μαθήματα που έχω δηλώσει καθώς και τις δηλώσεις προηγούμενων εξαμήνων</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ως καθηγητής,θέλω να έχω δυνατότητα να </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Εισάγω  Βαθμολογία</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve"> στους μαθητές που παρακολουθούν το μάθημα/μαθήματα που διδάσκω.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ο καθηγητής  εισάγει τη βαθμολογία των μαθήματων</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">στους φοιτητές</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ότι ειμαι καθηγητής </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατάω το κουμπί “Εισαγωγή βαθμολογίας”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το σύστημα μου εμφανιζει ενα μενού από το οποίο επιλέγω το [ΜΑΘΗΜΑ] και το τύπο του μαθήματος[ΘΕΩΡΙΑ][ΕΡΓΑΣΤΗΡΙΟ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">επιλέξω το μάθημα στο οποίο θέλω να καταχωρύσω τη βαθμολογία </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το σύστημα μου εμφανιίζει αυτόματα όλους τους φοιτητές που παρακολουθούν το συγκεκριμένο μάθημα</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> μόλις πατήσω πάνω στο όνομα κάποιου φοιτητή </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το σύστημα  μου επιτρέπει να καταχωρησω τη βαθμολογία του</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατήσω το κουμπί “Επιβεβαίωση Βαθμολογίας “</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα αποθηκεύει τη βαθμολογία του φοιτητή</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">US06</t>
   </si>
   <si>
-    <t xml:space="preserve">Ως &lt;ταυτοποιημένος χρήστης &gt;, θέλω να &lt;βλεπω τη δηλωσή μου … &gt;.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Πατώντας την επιλογή  Δήλωση στο συστημα,θα μπορέι ο ταυτοποιήμενος χρήστης να δει τα μαθήματα που δήλωσε.</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ο διαχειριστης παραγει εναν αριθμο κωδικων.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος ως διαχειριστης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταων στο μενου το κουμπι Φοιτητες,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας φοιτητων οπου υπαρχει φορμα παραγωγης κωδικων φοιτητων με πεδια ετος,αριθμος κωδικων φοιτητων,prefix και το κουμπι Παραγωγη</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">γεμισω τα πεδια ετος,αριθμος κωδικων φοιτητων,prefix </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Παραγωγη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [χ κωδικοι δημιουργηθηκαν][διαδρομη για το ονομα αρχειου]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο μαθημα,θελω να εχω δυνατοτητα να οριζω τον αλγοριθμο βαση του οποιου θα υπολογιζεται ο τελικος βαθμος των φοιτητων στο μαθημα. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ο καθηγητης οριζει τον αλγοριθμο υπολογισμου του τελικου βαθμου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">επιλεγω απο το μενου την επιλογη Τα μαθηματα μου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας των μαθηματων μου οπου υπαρχει μια λιστα με τα μαθηματα που διδασκω και μια φορμα με πεδια:[Input][Label Ποσοστο συμμετοχης Θεωριας][Λιστα με τιμες απο 0% - 100%],[input][Label Ποσοστο συμμετοχης εργαστηριου][Λιστα με τιμες απο 0% εως 100%] και [Κουμπι Αποθηκευση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">διαλεξω καποιο μαθηματα απο τη λιστα</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">συμπληρωσω το input για το ποσοστο συμμετοχης θεωριας </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">συμπληρωσω το input για το ποσοστο συμμετοχης εργαστηριου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Αποθηκευση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Καινουριος Αλγοριθμος Υπολογισμου Τελικου Βαθμου][χ% * βαθμος θεωριας]+[y%*βαθμος εργαστηριου][Κουμπι Αποθηκευση][Κουμπι Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Αποθηκευση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα αποθηκευει τον καινουριο αλγοριθμο.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -275,7 +1557,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -287,19 +1569,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="161"/>
     </font>
     <font>
       <b val="true"/>
@@ -379,22 +1658,114 @@
       <charset val="161"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <i val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="161"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00A933"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,7 +1775,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -442,7 +1831,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -499,48 +1888,92 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -568,7 +2001,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -590,23 +2023,23 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -626,14 +2059,11 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,50 +2290,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="51.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="20.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="12.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="14" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+    <row r="1" s="15" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" s="16" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" s="19" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="17" t="s">
         <v>37</v>
       </c>
@@ -912,233 +2342,171 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="72.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="65.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="89.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="89.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="86.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" customFormat="false" ht="64.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="123.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" customFormat="false" ht="45.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1149,4 +2517,377 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:B69"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="82.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="21" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="27"/>
+      <c r="B52" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/User_Stories.xlsx
+++ b/User_Stories.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styli\OneDrive\Υπολογιστής\projectpithia\Pithia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7034FDC7-422B-4E1D-A2EA-514871FFCB22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Διεργασία" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Product backlog Pithia" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Acceptance" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Διεργασία" sheetId="1" r:id="rId1"/>
+    <sheet name="Product backlog Pithia" sheetId="2" r:id="rId2"/>
+    <sheet name="Acceptance" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,24 +32,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="154">
   <si>
     <t xml:space="preserve"> Βήματα διεργασίας SCRUM</t>
   </si>
   <si>
-    <t xml:space="preserve">Δραστηριότητα/Εργασίες</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Αρμόδιος</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Δημιουργία Product backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Εισαγωγή User stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product owner</t>
+    <t>Δραστηριότητα/Εργασίες</t>
+  </si>
+  <si>
+    <t>Αρμόδιος</t>
+  </si>
+  <si>
+    <t>Δημιουργία Product backlog</t>
+  </si>
+  <si>
+    <t>Εισαγωγή User stories</t>
+  </si>
+  <si>
+    <t>Product owner</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -48,103 +58,103 @@
     <t xml:space="preserve">Προτεραιοποίηση </t>
   </si>
   <si>
-    <t xml:space="preserve">Φάση Sprint (max 22 ημέρες διάρκεια - 1000 ανθρωποώρες)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint Planning (1η ημέρα)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ορισμός στόχου Sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product owner, Ομάδα SCRUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Επιλογή PBI's &amp; Εκτίμηση προσπάθειας</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ομάδα SCRUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Δημιουργία Sprint backlog (+ Tasks)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Αυτοοργάνωση ομάδας</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Εκτέλεση Sprint backlog (διάρκεια 2-4 εβδομάδες)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Αφαίρεση εμποδίων</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCRUM Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ημερήσιο SCRUM meeting (15' διάρκεια)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCRUM Master, Ομάδα SCRUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ανάπτυξη λειτουργιών των user stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ενημέρωση Burn down διαγράμματος</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Επίξειξη και Αναδρομή Sprint</t>
+    <t>Φάση Sprint (max 22 ημέρες διάρκεια - 1000 ανθρωποώρες)</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Sprint Planning (1η ημέρα)</t>
+  </si>
+  <si>
+    <t>Ορισμός στόχου Sprint</t>
+  </si>
+  <si>
+    <t>Product owner, Ομάδα SCRUM</t>
+  </si>
+  <si>
+    <t>Επιλογή PBI's &amp; Εκτίμηση προσπάθειας</t>
+  </si>
+  <si>
+    <t>Ομάδα SCRUM</t>
+  </si>
+  <si>
+    <t>Δημιουργία Sprint backlog (+ Tasks)</t>
+  </si>
+  <si>
+    <t>Αυτοοργάνωση ομάδας</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Εκτέλεση Sprint backlog (διάρκεια 2-4 εβδομάδες)</t>
+  </si>
+  <si>
+    <t>Αφαίρεση εμποδίων</t>
+  </si>
+  <si>
+    <t>SCRUM Master</t>
+  </si>
+  <si>
+    <t>Ημερήσιο SCRUM meeting (15' διάρκεια)</t>
+  </si>
+  <si>
+    <t>SCRUM Master, Ομάδα SCRUM</t>
+  </si>
+  <si>
+    <t>Ανάπτυξη λειτουργιών των user stories</t>
+  </si>
+  <si>
+    <t>Ενημέρωση Burn down διαγράμματος</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Επίξειξη και Αναδρομή Sprint</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint review (4 ώρες) </t>
   </si>
   <si>
-    <t xml:space="preserve">Ολοι</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint retrospective (15' έκαστος)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ΕΦΑΡΜΟΓΗ Pithia(Pithia Project)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
+    <t>Ολοι</t>
+  </si>
+  <si>
+    <t>Sprint retrospective (15' έκαστος)</t>
+  </si>
+  <si>
+    <t>ΕΦΑΡΜΟΓΗ Pithia(Pithia Project)</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t xml:space="preserve">STORY </t>
   </si>
   <si>
-    <t xml:space="preserve">Περιγραφή</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Product owner)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Scrum Team)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(PO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως &lt;τύπος χρήστη&gt;, θέλω να &lt;κάνω … &gt; ώστε να &lt;επωφεληθώ ...&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US01</t>
+    <t>Περιγραφή</t>
+  </si>
+  <si>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>(Product owner)</t>
+  </si>
+  <si>
+    <t>(Scrum Team)</t>
+  </si>
+  <si>
+    <t>(PO)</t>
+  </si>
+  <si>
+    <t>Ως &lt;τύπος χρήστη&gt;, θέλω να &lt;κάνω … &gt; ώστε να &lt;επωφεληθώ ...&gt;</t>
+  </si>
+  <si>
+    <t>US01</t>
   </si>
   <si>
     <r>
@@ -159,21 +169,21 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">login</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Στο UI εισάγω τα διαπιστευτήριά μου (αριθμος μητρωου, κωδικος) με τα οποία, μετά τον έλεγχο, εισάγομαι στην εφαρμογή.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02</t>
+      <t>login</t>
+    </r>
+  </si>
+  <si>
+    <t>Στο UI εισάγω τα διαπιστευτήριά μου (αριθμος μητρωου, κωδικος) με τα οποία, μετά τον έλεγχο, εισάγομαι στην εφαρμογή.</t>
+  </si>
+  <si>
+    <t>US02</t>
   </si>
   <si>
     <r>
@@ -188,21 +198,21 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">logout</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Πατώντας "Logout",εξέρχομαι από την εφαρμογή.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US03</t>
+      <t>logout</t>
+    </r>
+  </si>
+  <si>
+    <t>Πατώντας "Logout",εξέρχομαι από την εφαρμογή.</t>
+  </si>
+  <si>
+    <t>US03</t>
   </si>
   <si>
     <r>
@@ -216,13 +226,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Bαθμολογία</t>
+      <t>Bαθμολογία</t>
     </r>
     <r>
       <rPr>
@@ -238,54 +248,54 @@
     <t xml:space="preserve">Πατώντας  την επιλογή ¨Βαθμολογία” από το μενού,θα μπορεί ο φοιτητης/τρια χρήστης να βλέπει τις βαθμολογίες του. </t>
   </si>
   <si>
-    <t xml:space="preserve">US04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως  φοιτητής, θέλω να βλέπω  τη Δηλωσή μου.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Πατώντας την επιλογή “ Δήλωση” από το μενού,θα μπορεί ο ταυτοποιήμενος χρήστης να δει τα μαθήματα που έχει δηλώσει.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως καθηγητής,θέλω να έχω δυνατότητα να Εισάγω  Βαθμολογία στους μαθητές που παρακολουθούν το μάθημα/μαθήματα που διδάσκω.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Δηλωση Βαθμολογιας" το οποιο θα οδηγει τον καθηγητη στη φορμα δηλωσης βαθμολογιας φοιτητων.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να δημιουργω χ αριθμο κωδικων για χ φοιττηες.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Φοιτητες” η οποια θα τον οδηγει στο περιβαλλον διαχειρησης φοιτητων.Εκει,εκτος αλλων,θα υπαρχει κουμπι “Δημιουργια Κωδικων Φοιτητων” με το οποιο θα μπορει να δημιουργει παραμετρικο αριθμο φοιτητων</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο μαθημα,θελω να εχω δυνατοτητα να οριζω τον αλγοριθμο βαση του οποιου θα υπολογιζεται ο τελικος βαθμος των φοιτητων στο μαθημα.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα μαθηματα μου” οπου,διαλεγωντας το μαθημα,θα του ανοιγει φορμα οπου,εκτος αλλων,θα μπορει να δηλωνει ποσοστα συμμετοχης διαφορων βαθμων του μαθηματος στον τελικο βαθμο(πχ,εργαστηριο,θεωρια και εργασιας)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως logout χρηστης θέλω να κάνω login για να εχω προσβαση στο συστημα.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Κριτήρια αποδοχής</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Ως  φοιτητής, θέλω να βλέπω  τη Δηλωσή μου.</t>
+  </si>
+  <si>
+    <t>Πατώντας την επιλογή “ Δήλωση” από το μενού,θα μπορεί ο ταυτοποιήμενος χρήστης να δει τα μαθήματα που έχει δηλώσει.</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Ως καθηγητής,θέλω να έχω δυνατότητα να Εισάγω  Βαθμολογία στους μαθητές που παρακολουθούν το μάθημα/μαθήματα που διδάσκω.</t>
+  </si>
+  <si>
+    <t>Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Δηλωση Βαθμολογιας" το οποιο θα οδηγει τον καθηγητη στη φορμα δηλωσης βαθμολογιας φοιτητων.</t>
+  </si>
+  <si>
+    <t>U06</t>
+  </si>
+  <si>
+    <t>Ως διαχειριστης,θελω να εχω δυνατοτητα να δημιουργω χ αριθμο κωδικων για χ φοιττηες.</t>
+  </si>
+  <si>
+    <t>Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Φοιτητες” η οποια θα τον οδηγει στο περιβαλλον διαχειρησης φοιτητων.Εκει,εκτος αλλων,θα υπαρχει κουμπι “Δημιουργια Κωδικων Φοιτητων” με το οποιο θα μπορει να δημιουργει παραμετρικο αριθμο φοιτητων</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Ως καθηγητης που διδασκω καποιο μαθημα,θελω να εχω δυνατοτητα να οριζω τον αλγοριθμο βαση του οποιου θα υπολογιζεται ο τελικος βαθμος των φοιτητων στο μαθημα.</t>
+  </si>
+  <si>
+    <t>Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα μαθηματα μου” οπου,διαλεγωντας το μαθημα,θα του ανοιγει φορμα οπου,εκτος αλλων,θα μπορει να δηλωνει ποσοστα συμμετοχης διαφορων βαθμων του μαθηματος στον τελικο βαθμο(πχ,εργαστηριο,θεωρια και εργασιας)</t>
+  </si>
+  <si>
+    <t>User story</t>
+  </si>
+  <si>
+    <t>Ως logout χρηστης θέλω να κάνω login για να εχω προσβαση στο συστημα.</t>
+  </si>
+  <si>
+    <t>Κριτήρια αποδοχής</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
@@ -302,14 +312,14 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">Logoout χρηστης μπαινει στο συστημα.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>Logoout χρηστης μπαινει στο συστημα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -326,14 +336,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">οτι ειμαι logout και ειμαι στην φορμα εισαγωγης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>οτι ειμαι logout και ειμαι στην φορμα εισαγωγης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -350,14 +360,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">βαζω το ονομα χρηστη και τον κωδικο μου</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>βαζω το ονομα χρηστη και τον κωδικο μου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -374,14 +384,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">παταω το κουμπι Συνδεση,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>παταω το κουμπι Συνδεση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -398,7 +408,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα μου επιτρεπει προσβαση</t>
+      <t>το συστημα μου επιτρεπει προσβαση</t>
     </r>
     <r>
       <rPr>
@@ -418,16 +428,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">και μου εμφανιζει το παραθυρο εφαρμογης με το μενου επιλογων.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως ταυτοποιημένος χρήστης θέλω να κάνω logout.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>και μου εμφανιζει το παραθυρο εφαρμογης με το μενου επιλογων.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ως ταυτοποιημένος χρήστης θέλω να κάνω logout.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
@@ -444,14 +454,14 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">Συνδεδεμενος χρηστης βγαινει απο το συστημα.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>Συνδεδεμενος χρηστης βγαινει απο το συστημα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -468,14 +478,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>οτι ειμαι συνδεδεμενος στο συστημα,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -492,14 +502,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">παταων στο μενου το κουμπι Logout</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>παταων στο μενου το κουμπι Logout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -516,14 +526,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">παταω “Ναι” οταν το συστημα με ρωταει αν θελω να βγω,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>παταω “Ναι” οταν το συστημα με ρωταει αν θελω να βγω,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -540,7 +550,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα με αποσυνδεει και με πηγαινει στη φορμα εισαγωγης.</t>
+      <t>το συστημα με αποσυνδεει και με πηγαινει στη φορμα εισαγωγης.</t>
     </r>
   </si>
   <si>
@@ -556,14 +566,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">Bαθμολογία</t>
+      <t>Bαθμολογία</t>
     </r>
     <r>
       <rPr>
@@ -579,7 +589,7 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="16"/>
         <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
@@ -596,11 +606,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ο Φοιτητής</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>Ο Φοιτητής</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="16"/>
         <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
@@ -623,14 +633,14 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Δεδομένου</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Δεδομένου</t>
     </r>
     <r>
       <rPr>
@@ -646,14 +656,14 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Όταν</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Όταν</t>
     </r>
     <r>
       <rPr>
@@ -669,14 +679,14 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τότε</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Τότε</t>
     </r>
     <r>
       <rPr>
@@ -702,14 +712,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">Δηλωσή</t>
+      <t>Δηλωσή</t>
     </r>
     <r>
       <rPr>
@@ -725,7 +735,7 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="16"/>
         <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
@@ -742,11 +752,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ο Φοιτητής  βλέπει τα μαθήματα που έχει δηλώσει στο</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>Ο Φοιτητής  βλέπει τα μαθήματα που έχει δηλώσει στο</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="16"/>
         <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
@@ -763,13 +773,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">τρέχον εξάμηνο και σε παλαιότερα</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>τρέχον εξάμηνο και σε παλαιότερα</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -786,11 +796,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ότι είμαι φοιτητής</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>ότι είμαι φοιτητής</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -803,14 +813,14 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Όταν</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Όταν</t>
     </r>
     <r>
       <rPr>
@@ -826,14 +836,14 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τότε</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Τότε</t>
     </r>
     <r>
       <rPr>
@@ -859,14 +869,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">Εισάγω  Βαθμολογία</t>
+      <t>Εισάγω  Βαθμολογία</t>
     </r>
     <r>
       <rPr>
@@ -882,7 +892,7 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="16"/>
         <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
@@ -899,23 +909,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ο καθηγητής  εισάγει τη βαθμολογία των μαθήματων</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">στους φοιτητές</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Δεδομένου</t>
+      <t>Ο καθηγητής  εισάγει τη βαθμολογία των μαθήματων</t>
+    </r>
+  </si>
+  <si>
+    <t>στους φοιτητές</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Δεδομένου</t>
     </r>
     <r>
       <rPr>
@@ -931,14 +941,14 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Οταν</t>
     </r>
     <r>
       <rPr>
@@ -954,7 +964,7 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -971,13 +981,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το σύστημα μου εμφανιζει ενα μενού από το οποίο επιλέγω το [ΜΑΘΗΜΑ] και το τύπο του μαθήματος[ΘΕΩΡΙΑ][ΕΡΓΑΣΤΗΡΙΟ]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>το σύστημα μου εμφανιζει ενα μενού από το οποίο επιλέγω το [ΜΑΘΗΜΑ] και το τύπο του μαθήματος[ΘΕΩΡΙΑ][ΕΡΓΑΣΤΗΡΙΟ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -1000,14 +1010,14 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τότε</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Τότε</t>
     </r>
     <r>
       <rPr>
@@ -1023,14 +1033,14 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Και</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Και</t>
     </r>
     <r>
       <rPr>
@@ -1046,14 +1056,14 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τότε</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Τότε</t>
     </r>
     <r>
       <rPr>
@@ -1069,14 +1079,14 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Οταν</t>
     </r>
     <r>
       <rPr>
@@ -1092,14 +1102,14 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τότε</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Τότε</t>
     </r>
     <r>
       <rPr>
@@ -1113,12 +1123,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">US06</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <t>US06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
@@ -1135,14 +1145,14 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">Ο διαχειριστης παραγει εναν αριθμο κωδικων.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>Ο διαχειριστης παραγει εναν αριθμο κωδικων.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -1159,14 +1169,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">οτι ειμαι συνδεδεμενος ως διαχειριστης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>οτι ειμαι συνδεδεμενος ως διαχειριστης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -1183,14 +1193,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">παταων στο μενου το κουμπι Φοιτητες,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>παταων στο μενου το κουμπι Φοιτητες,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1207,14 +1217,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας φοιτητων οπου υπαρχει φορμα παραγωγης κωδικων φοιτητων με πεδια ετος,αριθμος κωδικων φοιτητων,prefix και το κουμπι Παραγωγη</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας φοιτητων οπου υπαρχει φορμα παραγωγης κωδικων φοιτητων με πεδια ετος,αριθμος κωδικων φοιτητων,prefix και το κουμπι Παραγωγη</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -1237,8 +1247,8 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <i val="true"/>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1255,14 +1265,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Παραγωγη,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>πατησω το κουμπι Παραγωγη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1279,7 +1289,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [χ κωδικοι δημιουργηθηκαν][διαδρομη για το ονομα αρχειου]</t>
+      <t>το συστημα εμφανιζει μηνυμα της μορφης [χ κωδικοι δημιουργηθηκαν][διαδρομη για το ονομα αρχειου]</t>
     </r>
   </si>
   <si>
@@ -1288,7 +1298,7 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
@@ -1305,14 +1315,14 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">Ο καθηγητης οριζει τον αλγοριθμο υπολογισμου του τελικου βαθμου.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>Ο καθηγητης οριζει τον αλγοριθμο υπολογισμου του τελικου βαθμου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1329,14 +1339,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1353,14 +1363,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">επιλεγω απο το μενου την επιλογη Τα μαθηματα μου</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>επιλεγω απο το μενου την επιλογη Τα μαθηματα μου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1377,14 +1387,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας των μαθηματων μου οπου υπαρχει μια λιστα με τα μαθηματα που διδασκω και μια φορμα με πεδια:[Input][Label Ποσοστο συμμετοχης Θεωριας][Λιστα με τιμες απο 0% - 100%],[input][Label Ποσοστο συμμετοχης εργαστηριου][Λιστα με τιμες απο 0% εως 100%] και [Κουμπι Αποθηκευση]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας των μαθηματων μου οπου υπαρχει μια λιστα με τα μαθηματα που διδασκω και μια φορμα με πεδια:[Input][Label Ποσοστο συμμετοχης Θεωριας][Λιστα με τιμες απο 0% - 100%],[input][Label Ποσοστο συμμετοχης εργαστηριου][Λιστα με τιμες απο 0% εως 100%] και [Κουμπι Αποθηκευση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1401,14 +1411,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">διαλεξω καποιο μαθηματα απο τη λιστα</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>διαλεξω καποιο μαθηματα απο τη λιστα</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1431,8 +1441,8 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <i val="true"/>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1449,14 +1459,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">συμπληρωσω το input για το ποσοστο συμμετοχης εργαστηριου</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>συμπληρωσω το input για το ποσοστο συμμετοχης εργαστηριου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1473,14 +1483,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Αποθηκευση,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>πατησω το κουμπι Αποθηκευση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1497,14 +1507,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Καινουριος Αλγοριθμος Υπολογισμου Τελικου Βαθμου][χ% * βαθμος θεωριας]+[y%*βαθμος εργαστηριου][Κουμπι Αποθηκευση][Κουμπι Ακυρωση]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>το συστημα εμφανιζει μηνυμα της μορφης [Καινουριος Αλγοριθμος Υπολογισμου Τελικου Βαθμου][χ% * βαθμος θεωριας]+[y%*βαθμος εργαστηριου][Κουμπι Αποθηκευση][Κουμπι Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1521,14 +1531,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Αποθηκευση,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>πατησω το κουμπι Αποθηκευση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1545,19 +1555,689 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα αποθηκευει τον καινουριο αλγοριθμο.</t>
+      <t>το συστημα αποθηκευει τον καινουριο αλγοριθμο.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ως χρηστης,θελω να εχω δυνατοτητα να αλλαζω τον κωδικο μου.</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Οταν ο χρηστης θα μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ο λογαριασμος μου” η οποια θα τον οδηγει στην φορμα οπου θα μπορει,εκτος αλλων,να αλλαζει τον κωδικο του.</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Φοιτητης αλλαζει τον κωδικο του.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>οτι ειμαι συνδεδεμενος στο συστημα ως χρηστης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>παταω στο μενου την επιλογη “Ο λογαριαμος μου”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας του λογαριαμου μου οπου υπαρχει φορμα με πεδια Νεος Κωδικος και Επαναληψη Κωδικου και το κουμπι Αποθηκευση Κωδικου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>γεμισω τα πεδια Νεος Κωδικος και Επαναληψη Κωδικου με το νεο μου κωδικο</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>το συστημα εμφανιζει μηνυμα της μορφης [Ο κωδικος αλλαξε],με κανει logout και μου ζηταει να ξαναμπω με τον καινουριο κωδικο.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω φοιτητες στο εργαστηριο.</t>
+  </si>
+  <si>
+    <t>Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει δυνατοτηα προσθηκης φοιτητη.</t>
+  </si>
+  <si>
+    <t>Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω/αφαιρω απουσιες στους φοιτιτες που παρακολουθουν το εργαστηριο</t>
+  </si>
+  <si>
+    <t>Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει λιστα φοιτητων και κουμπι “Αυξηση απουσιων” και κουμπι “Μειωση απουσιων” διπλα σε καθε φοιτητη.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Καθηγητης Εργαστηριου προσθετη φοιτητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>παταω στο μενου την επιλογη “Τα Εργαστηρια Μου”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας των εργαστηριων που διδασκω οπου υπαρχει λιστα με τα εργαστηρια μου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>επιλεξω ενα εργαστηριο απο την λιστα,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου και μια φορμα με πεδια ΑΜ φοιτητη και κουμπι Προσθηκη Φοιτητη στο εργαστηριο.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>γεμισω το πεδιο ΑΜ και πατησω το κουμπι Προσθηκη Φοιτητη Στο Εργαστηριο,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Φοιτητη] [Κουμπι Προσθηκη] [Κουμπι Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>πατησω το κουμπι Προσθηκη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Φοιτητη] προστεθηκε επιτυχως.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω/αφαιρω απουσιες στους φοιτιτες που παρακολουθουν το εργαστηριο </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Καθηγητης Εργαστηριου αυξανη τις απουσιες καποιου φοιτητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου οπου υπαρχει μια λιστα με ολους του φοιτητες της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Κουμπι Αυξηση Απουσιων][Μειωση Απουσιων].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>πατησω το κουμπι Αυξηση Απουσιων σε εναν φοιτητη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Κουμπι Αυξηση Απουσιων][Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>πατησω το κουμπι Αυξηση Απουσιων,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων] Απουσιες Αυξηθηκαν κατα ενα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Καθηγητης Εργαστηριου μειωνει τις απουσιες καποιου φοιτητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου οπου υπαρχει μια λιστα με ολους του φοιτητες της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Κουμπι Αυξηση Απουσιων][Κουμπι Μειωση Απουσιων].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>πατησω το κουμπι Μειωση Απουσιων,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Κουμπι Μειωση Απουσιων][Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων] Απουσιες Μειωθηκαν κατα ενα.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1566,22 +2246,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1596,7 +2261,7 @@
       <charset val="161"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1604,7 +2269,7 @@
       <charset val="161"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1612,7 +2277,7 @@
       <charset val="161"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1627,7 +2292,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1642,7 +2307,7 @@
       <charset val="161"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -1650,7 +2315,7 @@
       <charset val="161"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -1665,7 +2330,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1673,7 +2338,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -1687,7 +2352,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1701,7 +2366,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1709,7 +2374,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -1717,7 +2382,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -1725,8 +2390,8 @@
       <charset val="161"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
+      <b/>
+      <i/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1734,8 +2399,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
+      <b/>
+      <i/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
@@ -1757,12 +2422,26 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1798,7 +2477,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1806,185 +2485,121 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2043,35 +2658,343 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.57"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2081,37 +3004,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2121,7 +3044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2129,43 +3052,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2173,44 +3096,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="C16" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -2220,98 +3143,90 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="51.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="20.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="12.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="14" width="8.67"/>
+    <col min="1" max="1" width="7.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="52" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="14" customWidth="1"/>
+    <col min="6" max="1025" width="8.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="15" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>31</v>
       </c>
@@ -2328,7 +3243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>36</v>
@@ -2341,13 +3256,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="18"/>
     </row>
-    <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>40</v>
       </c>
@@ -2358,7 +3273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="72.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>43</v>
       </c>
@@ -2369,7 +3284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="65.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
@@ -2380,7 +3295,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="89.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>49</v>
       </c>
@@ -2391,7 +3306,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="86.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="86.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>52</v>
       </c>
@@ -2402,7 +3317,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="123.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="123.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -2413,7 +3328,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>58</v>
       </c>
@@ -2424,120 +3339,135 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-    </row>
-    <row r="14" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="36"/>
+    </row>
+    <row r="14" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
     </row>
-    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
     </row>
-    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
     </row>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
     </row>
-    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
     </row>
-    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
     </row>
-    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
     </row>
-    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
     </row>
-    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
     </row>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:B69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:AMK113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="82.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="21" width="11.52"/>
+    <col min="1" max="1" width="11.5703125" style="21"/>
+    <col min="2" max="2" width="82.140625" style="21" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
@@ -2545,7 +3475,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>40</v>
       </c>
@@ -2553,43 +3483,43 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
@@ -2597,39 +3527,39 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>46</v>
       </c>
@@ -2637,32 +3567,32 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>49</v>
       </c>
@@ -2670,32 +3600,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="B28" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="B31" s="33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>52</v>
       </c>
@@ -2703,67 +3633,67 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="B40" s="33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="B41" s="33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="B43" s="33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
         <v>97</v>
       </c>
@@ -2771,49 +3701,49 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="27" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:2" ht="81" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B55" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>58</v>
       </c>
@@ -2821,71 +3751,371 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:2" ht="42" x14ac:dyDescent="0.25">
       <c r="B59" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B60" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
       <c r="B62" s="28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B64" s="28" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B65" s="28" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" s="28" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:3" ht="81" x14ac:dyDescent="0.25">
       <c r="B67" s="28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" s="28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" s="28" t="s">
         <v>116</v>
       </c>
     </row>
+    <row r="70" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="38"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
+      <c r="B71" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="38"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="38"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
+      <c r="B73" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="38"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
+      <c r="B74" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="38"/>
+    </row>
+    <row r="75" spans="1:3" ht="84" x14ac:dyDescent="0.25">
+      <c r="A75" s="28"/>
+      <c r="B75" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="38"/>
+    </row>
+    <row r="76" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="38"/>
+      <c r="B76" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="38"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="38"/>
+      <c r="B77" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="38"/>
+    </row>
+    <row r="78" spans="1:3" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="38"/>
+      <c r="B78" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="38"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+    </row>
+    <row r="80" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A80" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="38"/>
+      <c r="B81" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="38"/>
+      <c r="B82" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A83" s="38"/>
+      <c r="B83" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="38"/>
+      <c r="B84" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A85" s="28"/>
+      <c r="B85" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="38"/>
+      <c r="B86" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="38"/>
+      <c r="B87" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="38"/>
+      <c r="B88" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="38"/>
+      <c r="B89" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="38"/>
+      <c r="B90" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="38"/>
+      <c r="B91" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A92" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" s="38"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="38"/>
+      <c r="B93" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="38"/>
+    </row>
+    <row r="94" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A94" s="38"/>
+      <c r="B94" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" s="38"/>
+    </row>
+    <row r="95" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A95" s="38"/>
+      <c r="B95" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="38"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="38"/>
+      <c r="B96" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C96" s="38"/>
+    </row>
+    <row r="97" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A97" s="28"/>
+      <c r="B97" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C97" s="38"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="38"/>
+      <c r="B98" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C98" s="38"/>
+    </row>
+    <row r="99" spans="1:3" ht="81" x14ac:dyDescent="0.25">
+      <c r="A99" s="38"/>
+      <c r="B99" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="38"/>
+    </row>
+    <row r="100" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="38"/>
+      <c r="B100" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="38"/>
+    </row>
+    <row r="101" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="38"/>
+      <c r="B101" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" s="38"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="38"/>
+      <c r="B102" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" s="38"/>
+    </row>
+    <row r="103" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="38"/>
+      <c r="B103" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="38"/>
+    </row>
+    <row r="104" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A104" s="38"/>
+      <c r="B104" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" s="38"/>
+    </row>
+    <row r="105" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A105" s="38"/>
+      <c r="B105" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" s="38"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="38"/>
+      <c r="B106" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" s="38"/>
+    </row>
+    <row r="107" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A107" s="38"/>
+      <c r="B107" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" s="38"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="38"/>
+      <c r="B108" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" s="38"/>
+    </row>
+    <row r="109" spans="1:3" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="38"/>
+      <c r="B109" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C109" s="38"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="38"/>
+      <c r="B110" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" s="38"/>
+    </row>
+    <row r="111" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="38"/>
+      <c r="B111" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C111" s="38"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="38"/>
+      <c r="B112" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112" s="38"/>
+    </row>
+    <row r="113" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="38"/>
+      <c r="B113" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="38"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="25" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/User_Stories.xlsx
+++ b/User_Stories.xlsx
@@ -1,29 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styli\OneDrive\Υπολογιστής\projectpithia\Pithia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7034FDC7-422B-4E1D-A2EA-514871FFCB22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Διεργασία" sheetId="1" r:id="rId1"/>
-    <sheet name="Product backlog Pithia" sheetId="2" r:id="rId2"/>
-    <sheet name="Acceptance" sheetId="3" r:id="rId3"/>
+    <sheet name="Διεργασία" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Product backlog Pithia" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Acceptance" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -37,19 +27,19 @@
     <t xml:space="preserve"> Βήματα διεργασίας SCRUM</t>
   </si>
   <si>
-    <t>Δραστηριότητα/Εργασίες</t>
-  </si>
-  <si>
-    <t>Αρμόδιος</t>
-  </si>
-  <si>
-    <t>Δημιουργία Product backlog</t>
-  </si>
-  <si>
-    <t>Εισαγωγή User stories</t>
-  </si>
-  <si>
-    <t>Product owner</t>
+    <t xml:space="preserve">Δραστηριότητα/Εργασίες</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Αρμόδιος</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Δημιουργία Product backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Εισαγωγή User stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product owner</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -58,103 +48,103 @@
     <t xml:space="preserve">Προτεραιοποίηση </t>
   </si>
   <si>
-    <t>Φάση Sprint (max 22 ημέρες διάρκεια - 1000 ανθρωποώρες)</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Sprint Planning (1η ημέρα)</t>
-  </si>
-  <si>
-    <t>Ορισμός στόχου Sprint</t>
-  </si>
-  <si>
-    <t>Product owner, Ομάδα SCRUM</t>
-  </si>
-  <si>
-    <t>Επιλογή PBI's &amp; Εκτίμηση προσπάθειας</t>
-  </si>
-  <si>
-    <t>Ομάδα SCRUM</t>
-  </si>
-  <si>
-    <t>Δημιουργία Sprint backlog (+ Tasks)</t>
-  </si>
-  <si>
-    <t>Αυτοοργάνωση ομάδας</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>Εκτέλεση Sprint backlog (διάρκεια 2-4 εβδομάδες)</t>
-  </si>
-  <si>
-    <t>Αφαίρεση εμποδίων</t>
-  </si>
-  <si>
-    <t>SCRUM Master</t>
-  </si>
-  <si>
-    <t>Ημερήσιο SCRUM meeting (15' διάρκεια)</t>
-  </si>
-  <si>
-    <t>SCRUM Master, Ομάδα SCRUM</t>
-  </si>
-  <si>
-    <t>Ανάπτυξη λειτουργιών των user stories</t>
-  </si>
-  <si>
-    <t>Ενημέρωση Burn down διαγράμματος</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>Επίξειξη και Αναδρομή Sprint</t>
+    <t xml:space="preserve">Φάση Sprint (max 22 ημέρες διάρκεια - 1000 ανθρωποώρες)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint Planning (1η ημέρα)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ορισμός στόχου Sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product owner, Ομάδα SCRUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Επιλογή PBI's &amp; Εκτίμηση προσπάθειας</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ομάδα SCRUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Δημιουργία Sprint backlog (+ Tasks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Αυτοοργάνωση ομάδας</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Εκτέλεση Sprint backlog (διάρκεια 2-4 εβδομάδες)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Αφαίρεση εμποδίων</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRUM Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ημερήσιο SCRUM meeting (15' διάρκεια)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRUM Master, Ομάδα SCRUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ανάπτυξη λειτουργιών των user stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ενημέρωση Burn down διαγράμματος</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Επίξειξη και Αναδρομή Sprint</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint review (4 ώρες) </t>
   </si>
   <si>
-    <t>Ολοι</t>
-  </si>
-  <si>
-    <t>Sprint retrospective (15' έκαστος)</t>
-  </si>
-  <si>
-    <t>ΕΦΑΡΜΟΓΗ Pithia(Pithia Project)</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t xml:space="preserve">Ολοι</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint retrospective (15' έκαστος)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ΕΦΑΡΜΟΓΗ Pithia(Pithia Project)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">STORY </t>
   </si>
   <si>
-    <t>Περιγραφή</t>
-  </si>
-  <si>
-    <t>Estimation</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>(Product owner)</t>
-  </si>
-  <si>
-    <t>(Scrum Team)</t>
-  </si>
-  <si>
-    <t>(PO)</t>
-  </si>
-  <si>
-    <t>Ως &lt;τύπος χρήστη&gt;, θέλω να &lt;κάνω … &gt; ώστε να &lt;επωφεληθώ ...&gt;</t>
-  </si>
-  <si>
-    <t>US01</t>
+    <t xml:space="preserve">Περιγραφή</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Product owner)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Scrum Team)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(PO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως &lt;τύπος χρήστη&gt;, θέλω να &lt;κάνω … &gt; ώστε να &lt;επωφεληθώ ...&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US01</t>
   </si>
   <si>
     <r>
@@ -169,21 +159,21 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t>login</t>
-    </r>
-  </si>
-  <si>
-    <t>Στο UI εισάγω τα διαπιστευτήριά μου (αριθμος μητρωου, κωδικος) με τα οποία, μετά τον έλεγχο, εισάγομαι στην εφαρμογή.</t>
-  </si>
-  <si>
-    <t>US02</t>
+      <t xml:space="preserve">login</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Στο UI εισάγω τα διαπιστευτήριά μου (αριθμος μητρωου, κωδικος) με τα οποία, μετά τον έλεγχο, εισάγομαι στην εφαρμογή.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US02</t>
   </si>
   <si>
     <r>
@@ -198,21 +188,21 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>logout</t>
-    </r>
-  </si>
-  <si>
-    <t>Πατώντας "Logout",εξέρχομαι από την εφαρμογή.</t>
-  </si>
-  <si>
-    <t>US03</t>
+      <t xml:space="preserve">logout</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Πατώντας "Logout",εξέρχομαι από την εφαρμογή.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US03</t>
   </si>
   <si>
     <r>
@@ -221,18 +211,20 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ως φοιτητής , θέλω να βλέπω τη </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>Bαθμολογία</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bαθμολογία</t>
     </r>
     <r>
       <rPr>
@@ -240,6 +232,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> των μαθημάτων μου.</t>
     </r>
@@ -248,54 +241,81 @@
     <t xml:space="preserve">Πατώντας  την επιλογή ¨Βαθμολογία” από το μενού,θα μπορεί ο φοιτητης/τρια χρήστης να βλέπει τις βαθμολογίες του. </t>
   </si>
   <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>Ως  φοιτητής, θέλω να βλέπω  τη Δηλωσή μου.</t>
-  </si>
-  <si>
-    <t>Πατώντας την επιλογή “ Δήλωση” από το μενού,θα μπορεί ο ταυτοποιήμενος χρήστης να δει τα μαθήματα που έχει δηλώσει.</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>Ως καθηγητής,θέλω να έχω δυνατότητα να Εισάγω  Βαθμολογία στους μαθητές που παρακολουθούν το μάθημα/μαθήματα που διδάσκω.</t>
-  </si>
-  <si>
-    <t>Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Δηλωση Βαθμολογιας" το οποιο θα οδηγει τον καθηγητη στη φορμα δηλωσης βαθμολογιας φοιτητων.</t>
-  </si>
-  <si>
-    <t>U06</t>
-  </si>
-  <si>
-    <t>Ως διαχειριστης,θελω να εχω δυνατοτητα να δημιουργω χ αριθμο κωδικων για χ φοιττηες.</t>
-  </si>
-  <si>
-    <t>Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Φοιτητες” η οποια θα τον οδηγει στο περιβαλλον διαχειρησης φοιτητων.Εκει,εκτος αλλων,θα υπαρχει κουμπι “Δημιουργια Κωδικων Φοιτητων” με το οποιο θα μπορει να δημιουργει παραμετρικο αριθμο φοιτητων</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>Ως καθηγητης που διδασκω καποιο μαθημα,θελω να εχω δυνατοτητα να οριζω τον αλγοριθμο βαση του οποιου θα υπολογιζεται ο τελικος βαθμος των φοιτητων στο μαθημα.</t>
-  </si>
-  <si>
-    <t>Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα μαθηματα μου” οπου,διαλεγωντας το μαθημα,θα του ανοιγει φορμα οπου,εκτος αλλων,θα μπορει να δηλωνει ποσοστα συμμετοχης διαφορων βαθμων του μαθηματος στον τελικο βαθμο(πχ,εργαστηριο,θεωρια και εργασιας)</t>
-  </si>
-  <si>
-    <t>User story</t>
-  </si>
-  <si>
-    <t>Ως logout χρηστης θέλω να κάνω login για να εχω προσβαση στο συστημα.</t>
-  </si>
-  <si>
-    <t>Κριτήρια αποδοχής</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">US04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως  φοιτητής, θέλω να βλέπω  τη Δηλωσή μου.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Πατώντας την επιλογή “ Δήλωση” από το μενού,θα μπορεί ο ταυτοποιήμενος χρήστης να δει τα μαθήματα που έχει δηλώσει.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητής,θέλω να έχω δυνατότητα να Εισάγω  Βαθμολογία στους μαθητές που παρακολουθούν το μάθημα/μαθήματα που διδάσκω.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Δηλωση Βαθμολογιας" το οποιο θα οδηγει τον καθηγητη στη φορμα δηλωσης βαθμολογιας φοιτητων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να δημιουργω χ αριθμο κωδικων για χ φοιττηες.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Φοιτητες” η οποια θα τον οδηγει στο περιβαλλον διαχειρησης φοιτητων.Εκει,εκτος αλλων,θα υπαρχει κουμπι “Δημιουργια Κωδικων Φοιτητων” με το οποιο θα μπορει να δημιουργει παραμετρικο αριθμο φοιτητων</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο μαθημα,θελω να εχω δυνατοτητα να οριζω τον αλγοριθμο βαση του οποιου θα υπολογιζεται ο τελικος βαθμος των φοιτητων στο μαθημα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα μαθηματα μου” οπου,διαλεγωντας το μαθημα,θα του ανοιγει φορμα οπου,εκτος αλλων,θα μπορει να δηλωνει ποσοστα συμμετοχης διαφορων βαθμων του μαθηματος στον τελικο βαθμο(πχ,εργαστηριο,θεωρια και εργασιας)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως χρηστης,θελω να εχω δυνατοτητα να αλλαζω τον κωδικο μου.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο χρηστης θα μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ο λογαριασμος μου” η οποια θα τον οδηγει στην φορμα οπου θα μπορει,εκτος αλλων,να αλλαζει τον κωδικο του.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω φοιτητες στο εργαστηριο.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει δυνατοτηα προσθηκης φοιτητη.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω/αφαιρω απουσιες στους φοιτιτες που παρακολουθουν το εργαστηριο</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει λιστα φοιτητων και κουμπι “Αυξηση απουσιων” και κουμπι “Μειωση απουσιων” διπλα σε καθε φοιτητη.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως logout χρηστης θέλω να κάνω login για να εχω προσβαση στο συστημα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Κριτήρια αποδοχής</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
@@ -312,14 +332,14 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t>Logoout χρηστης μπαινει στο συστημα.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">Logoout χρηστης μπαινει στο συστημα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -336,14 +356,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>οτι ειμαι logout και ειμαι στην φορμα εισαγωγης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">οτι ειμαι logout και ειμαι στην φορμα εισαγωγης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -360,14 +380,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>βαζω το ονομα χρηστη και τον κωδικο μου</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">βαζω το ονομα χρηστη και τον κωδικο μου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -384,14 +404,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>παταω το κουμπι Συνδεση,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">παταω το κουμπι Συνδεση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -408,7 +428,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα μου επιτρεπει προσβαση</t>
+      <t xml:space="preserve">το συστημα μου επιτρεπει προσβαση</t>
     </r>
     <r>
       <rPr>
@@ -428,16 +448,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>και μου εμφανιζει το παραθυρο εφαρμογης με το μενου επιλογων.</t>
-    </r>
-  </si>
-  <si>
-    <t>Ως ταυτοποιημένος χρήστης θέλω να κάνω logout.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">και μου εμφανιζει το παραθυρο εφαρμογης με το μενου επιλογων.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως ταυτοποιημένος χρήστης θέλω να κάνω logout.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
@@ -454,14 +474,14 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t>Συνδεδεμενος χρηστης βγαινει απο το συστημα.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">Συνδεδεμενος χρηστης βγαινει απο το συστημα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -478,14 +498,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>οτι ειμαι συνδεδεμενος στο συστημα,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -502,14 +522,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>παταων στο μενου το κουμπι Logout</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">παταων στο μενου το κουμπι Logout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -526,14 +546,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>παταω “Ναι” οταν το συστημα με ρωταει αν θελω να βγω,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">παταω “Ναι” οταν το συστημα με ρωταει αν θελω να βγω,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -550,7 +570,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα με αποσυνδεει και με πηγαινει στη φορμα εισαγωγης.</t>
+      <t xml:space="preserve">το συστημα με αποσυνδεει και με πηγαινει στη φορμα εισαγωγης.</t>
     </r>
   </si>
   <si>
@@ -566,14 +586,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t>Bαθμολογία</t>
+      <t xml:space="preserve">Bαθμολογία</t>
     </r>
     <r>
       <rPr>
@@ -589,7 +609,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
@@ -606,11 +626,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Ο Φοιτητής</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">Ο Φοιτητής</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
@@ -633,14 +653,14 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Δεδομένου</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου</t>
     </r>
     <r>
       <rPr>
@@ -656,14 +676,14 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Όταν</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν</t>
     </r>
     <r>
       <rPr>
@@ -679,14 +699,14 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Τότε</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
     </r>
     <r>
       <rPr>
@@ -712,14 +732,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t>Δηλωσή</t>
+      <t xml:space="preserve">Δηλωσή</t>
     </r>
     <r>
       <rPr>
@@ -735,7 +755,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
@@ -752,11 +772,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Ο Φοιτητής  βλέπει τα μαθήματα που έχει δηλώσει στο</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">Ο Φοιτητής  βλέπει τα μαθήματα που έχει δηλώσει στο</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
@@ -773,13 +793,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>τρέχον εξάμηνο και σε παλαιότερα</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">τρέχον εξάμηνο και σε παλαιότερα</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -796,11 +816,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ότι είμαι φοιτητής</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">ότι είμαι φοιτητής</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -813,14 +833,14 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Όταν</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν</t>
     </r>
     <r>
       <rPr>
@@ -836,14 +856,14 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Τότε</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
     </r>
     <r>
       <rPr>
@@ -869,14 +889,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t>Εισάγω  Βαθμολογία</t>
+      <t xml:space="preserve">Εισάγω  Βαθμολογία</t>
     </r>
     <r>
       <rPr>
@@ -892,7 +912,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
@@ -909,23 +929,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Ο καθηγητής  εισάγει τη βαθμολογία των μαθήματων</t>
-    </r>
-  </si>
-  <si>
-    <t>στους φοιτητές</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Δεδομένου</t>
+      <t xml:space="preserve">Ο καθηγητής  εισάγει τη βαθμολογία των μαθήματων</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">στους φοιτητές</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου</t>
     </r>
     <r>
       <rPr>
@@ -941,14 +961,14 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Οταν</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
     </r>
     <r>
       <rPr>
@@ -964,7 +984,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -981,13 +1001,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>το σύστημα μου εμφανιζει ενα μενού από το οποίο επιλέγω το [ΜΑΘΗΜΑ] και το τύπο του μαθήματος[ΘΕΩΡΙΑ][ΕΡΓΑΣΤΗΡΙΟ]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">το σύστημα μου εμφανιζει ενα μενού από το οποίο επιλέγω το [ΜΑΘΗΜΑ] και το τύπο του μαθήματος[ΘΕΩΡΙΑ][ΕΡΓΑΣΤΗΡΙΟ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -1010,14 +1030,14 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Τότε</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
     </r>
     <r>
       <rPr>
@@ -1033,14 +1053,14 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Και</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και</t>
     </r>
     <r>
       <rPr>
@@ -1056,14 +1076,14 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Τότε</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
     </r>
     <r>
       <rPr>
@@ -1079,14 +1099,14 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Οταν</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
     </r>
     <r>
       <rPr>
@@ -1102,14 +1122,14 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Τότε</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
     </r>
     <r>
       <rPr>
@@ -1123,12 +1143,12 @@
     </r>
   </si>
   <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <t xml:space="preserve">US06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
@@ -1145,14 +1165,14 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t>Ο διαχειριστης παραγει εναν αριθμο κωδικων.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">Ο διαχειριστης παραγει εναν αριθμο κωδικων.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -1169,14 +1189,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>οτι ειμαι συνδεδεμενος ως διαχειριστης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος ως διαχειριστης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -1193,14 +1213,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>παταων στο μενου το κουμπι Φοιτητες,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">παταων στο μενου το κουμπι Φοιτητες,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1217,14 +1237,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας φοιτητων οπου υπαρχει φορμα παραγωγης κωδικων φοιτητων με πεδια ετος,αριθμος κωδικων φοιτητων,prefix και το κουμπι Παραγωγη</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας φοιτητων οπου υπαρχει φορμα παραγωγης κωδικων φοιτητων με πεδια ετος,αριθμος κωδικων φοιτητων,prefix και το κουμπι Παραγωγη</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -1247,8 +1267,8 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <i/>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1265,14 +1285,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>πατησω το κουμπι Παραγωγη,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">πατησω το κουμπι Παραγωγη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1289,7 +1309,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα εμφανιζει μηνυμα της μορφης [χ κωδικοι δημιουργηθηκαν][διαδρομη για το ονομα αρχειου]</t>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [χ κωδικοι δημιουργηθηκαν][διαδρομη για το ονομα αρχειου]</t>
     </r>
   </si>
   <si>
@@ -1298,7 +1318,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
@@ -1315,14 +1335,14 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t>Ο καθηγητης οριζει τον αλγοριθμο υπολογισμου του τελικου βαθμου.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">Ο καθηγητης οριζει τον αλγοριθμο υπολογισμου του τελικου βαθμου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1339,14 +1359,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1363,14 +1383,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>επιλεγω απο το μενου την επιλογη Τα μαθηματα μου</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">επιλεγω απο το μενου την επιλογη Τα μαθηματα μου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1387,14 +1407,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας των μαθηματων μου οπου υπαρχει μια λιστα με τα μαθηματα που διδασκω και μια φορμα με πεδια:[Input][Label Ποσοστο συμμετοχης Θεωριας][Λιστα με τιμες απο 0% - 100%],[input][Label Ποσοστο συμμετοχης εργαστηριου][Λιστα με τιμες απο 0% εως 100%] και [Κουμπι Αποθηκευση]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας των μαθηματων μου οπου υπαρχει μια λιστα με τα μαθηματα που διδασκω και μια φορμα με πεδια:[Input][Label Ποσοστο συμμετοχης Θεωριας][Λιστα με τιμες απο 0% - 100%],[input][Label Ποσοστο συμμετοχης εργαστηριου][Λιστα με τιμες απο 0% εως 100%] και [Κουμπι Αποθηκευση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1411,14 +1431,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>διαλεξω καποιο μαθηματα απο τη λιστα</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">διαλεξω καποιο μαθηματα απο τη λιστα</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1441,8 +1461,8 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <i/>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1459,14 +1479,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>συμπληρωσω το input για το ποσοστο συμμετοχης εργαστηριου</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">συμπληρωσω το input για το ποσοστο συμμετοχης εργαστηριου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1483,14 +1503,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>πατησω το κουμπι Αποθηκευση,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">πατησω το κουμπι Αποθηκευση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1507,14 +1527,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα εμφανιζει μηνυμα της μορφης [Καινουριος Αλγοριθμος Υπολογισμου Τελικου Βαθμου][χ% * βαθμος θεωριας]+[y%*βαθμος εργαστηριου][Κουμπι Αποθηκευση][Κουμπι Ακυρωση]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Καινουριος Αλγοριθμος Υπολογισμου Τελικου Βαθμου][χ% * βαθμος θεωριας]+[y%*βαθμος εργαστηριου][Κουμπι Αποθηκευση][Κουμπι Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1531,14 +1551,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>πατησω το κουμπι Αποθηκευση,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">πατησω το κουμπι Αποθηκευση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1555,28 +1575,13 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα αποθηκευει τον καινουριο αλγοριθμο.</t>
-    </r>
-  </si>
-  <si>
-    <t>Ως χρηστης,θελω να εχω δυνατοτητα να αλλαζω τον κωδικο μου.</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>Οταν ο χρηστης θα μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Ο λογαριασμος μου” η οποια θα τον οδηγει στην φορμα οπου θα μπορει,εκτος αλλων,να αλλαζει τον κωδικο του.</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">το συστημα αποθηκευει τον καινουριο αλγοριθμο.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
@@ -1593,14 +1598,14 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t>Φοιτητης αλλαζει τον κωδικο του.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">Φοιτητης αλλαζει τον κωδικο του.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -1617,14 +1622,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>οτι ειμαι συνδεδεμενος στο συστημα ως χρηστης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως χρηστης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -1641,14 +1646,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>παταω στο μενου την επιλογη “Ο λογαριαμος μου”,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">παταω στο μενου την επιλογη “Ο λογαριαμος μου”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -1665,14 +1670,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας του λογαριαμου μου οπου υπαρχει φορμα με πεδια Νεος Κωδικος και Επαναληψη Κωδικου και το κουμπι Αποθηκευση Κωδικου.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας του λογαριαμου μου οπου υπαρχει φορμα με πεδια Νεος Κωδικος και Επαναληψη Κωδικου και το κουμπι Αποθηκευση Κωδικου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1689,14 +1694,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>γεμισω τα πεδια Νεος Κωδικος και Επαναληψη Κωδικου με το νεο μου κωδικο</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">γεμισω τα πεδια Νεος Κωδικος και Επαναληψη Κωδικου με το νεο μου κωδικο</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1713,25 +1718,13 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα εμφανιζει μηνυμα της μορφης [Ο κωδικος αλλαξε],με κανει logout και μου ζηταει να ξαναμπω με τον καινουριο κωδικο.</t>
-    </r>
-  </si>
-  <si>
-    <t>Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω φοιτητες στο εργαστηριο.</t>
-  </si>
-  <si>
-    <t>Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει δυνατοτηα προσθηκης φοιτητη.</t>
-  </si>
-  <si>
-    <t>Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω/αφαιρω απουσιες στους φοιτιτες που παρακολουθουν το εργαστηριο</t>
-  </si>
-  <si>
-    <t>Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει λιστα φοιτητων και κουμπι “Αυξηση απουσιων” και κουμπι “Μειωση απουσιων” διπλα σε καθε φοιτητη.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Ο κωδικος αλλαξε],με κανει logout και μου ζηταει να ξαναμπω με τον καινουριο κωδικο.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
@@ -1748,14 +1741,14 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t>Καθηγητης Εργαστηριου προσθετη φοιτητη.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">Καθηγητης Εργαστηριου προσθετη φοιτητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -1772,14 +1765,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -1796,14 +1789,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>παταω στο μενου την επιλογη “Τα Εργαστηρια Μου”,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">παταω στο μενου την επιλογη “Τα Εργαστηρια Μου”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -1820,14 +1813,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας των εργαστηριων που διδασκω οπου υπαρχει λιστα με τα εργαστηρια μου.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας των εργαστηριων που διδασκω οπου υπαρχει λιστα με τα εργαστηρια μου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1844,14 +1837,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>επιλεξω ενα εργαστηριο απο την λιστα,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">επιλεξω ενα εργαστηριο απο την λιστα,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1868,14 +1861,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου και μια φορμα με πεδια ΑΜ φοιτητη και κουμπι Προσθηκη Φοιτητη στο εργαστηριο.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου και μια φορμα με πεδια ΑΜ φοιτητη και κουμπι Προσθηκη Φοιτητη στο εργαστηριο.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1892,14 +1885,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>γεμισω το πεδιο ΑΜ και πατησω το κουμπι Προσθηκη Φοιτητη Στο Εργαστηριο,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">γεμισω το πεδιο ΑΜ και πατησω το κουμπι Προσθηκη Φοιτητη Στο Εργαστηριο,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1916,14 +1909,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Φοιτητη] [Κουμπι Προσθηκη] [Κουμπι Ακυρωση]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Φοιτητη] [Κουμπι Προσθηκη] [Κουμπι Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1940,14 +1933,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>πατησω το κουμπι Προσθηκη,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">πατησω το κουμπι Προσθηκη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -1964,7 +1957,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Φοιτητη] προστεθηκε επιτυχως.</t>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Φοιτητη] προστεθηκε επιτυχως.</t>
     </r>
   </si>
   <si>
@@ -1973,7 +1966,7 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
@@ -1990,14 +1983,14 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t>Καθηγητης Εργαστηριου αυξανη τις απουσιες καποιου φοιτητη.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">Καθηγητης Εργαστηριου αυξανη τις απουσιες καποιου φοιτητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -2014,14 +2007,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου οπου υπαρχει μια λιστα με ολους του φοιτητες της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Κουμπι Αυξηση Απουσιων][Μειωση Απουσιων].</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου οπου υπαρχει μια λιστα με ολους του φοιτητες της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Κουμπι Αυξηση Απουσιων][Μειωση Απουσιων].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -2038,14 +2031,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>πατησω το κουμπι Αυξηση Απουσιων σε εναν φοιτητη,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">πατησω το κουμπι Αυξηση Απουσιων σε εναν φοιτητη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -2062,14 +2055,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Κουμπι Αυξηση Απουσιων][Ακυρωση]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Κουμπι Αυξηση Απουσιων][Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -2086,14 +2079,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>πατησω το κουμπι Αυξηση Απουσιων,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">πατησω το κουμπι Αυξηση Απουσιων,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -2110,13 +2103,13 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων] Απουσιες Αυξηθηκαν κατα ενα.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων] Απουσιες Αυξηθηκαν κατα ενα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
@@ -2133,14 +2126,14 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t>Καθηγητης Εργαστηριου μειωνει τις απουσιες καποιου φοιτητη.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">Καθηγητης Εργαστηριου μειωνει τις απουσιες καποιου φοιτητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -2157,14 +2150,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου οπου υπαρχει μια λιστα με ολους του φοιτητες της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Κουμπι Αυξηση Απουσιων][Κουμπι Μειωση Απουσιων].</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου οπου υπαρχει μια λιστα με ολους του φοιτητες της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Κουμπι Αυξηση Απουσιων][Κουμπι Μειωση Απουσιων].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -2181,14 +2174,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>πατησω το κουμπι Μειωση Απουσιων,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">πατησω το κουμπι Μειωση Απουσιων,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -2205,14 +2198,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Κουμπι Μειωση Απουσιων][Ακυρωση]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Κουμπι Μειωση Απουσιων][Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
@@ -2229,15 +2222,19 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων] Απουσιες Μειωθηκαν κατα ενα.</t>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων] Απουσιες Μειωθηκαν κατα ενα.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2246,7 +2243,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2261,7 +2273,7 @@
       <charset val="161"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2269,7 +2281,7 @@
       <charset val="161"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2277,7 +2289,7 @@
       <charset val="161"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2292,7 +2304,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2307,7 +2319,7 @@
       <charset val="161"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -2315,7 +2327,7 @@
       <charset val="161"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -2330,7 +2342,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2338,25 +2350,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -2366,7 +2365,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2374,7 +2373,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -2382,7 +2381,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -2390,8 +2389,8 @@
       <charset val="161"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <b val="true"/>
+      <i val="true"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2399,8 +2398,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <b val="true"/>
+      <i val="true"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
@@ -2422,7 +2421,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FFC9211E"/>
       <name val="Calibri"/>
@@ -2430,13 +2429,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -2477,7 +2470,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -2485,121 +2478,193 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="38">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2658,343 +2723,35 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" s="2" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" s="3" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3004,37 +2761,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" s="7" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -3044,7 +2801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" s="7" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -3052,43 +2809,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" s="7" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -3096,44 +2853,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
       <c r="C16" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -3143,90 +2900,98 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="52" style="14" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="14" customWidth="1"/>
-    <col min="6" max="1025" width="8.7109375" style="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="51.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="12.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="14" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="15" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
         <v>31</v>
       </c>
@@ -3243,7 +3008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>36</v>
@@ -3256,13 +3021,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="18"/>
     </row>
-    <row r="5" spans="1:5" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="52.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
         <v>40</v>
       </c>
@@ -3273,7 +3038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="72.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
         <v>43</v>
       </c>
@@ -3284,18 +3049,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="65.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="89.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
         <v>49</v>
       </c>
@@ -3306,7 +3071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="86.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="86.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
         <v>52</v>
       </c>
@@ -3317,7 +3082,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="123.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="123.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -3328,7 +3093,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="114" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
         <v>58</v>
       </c>
@@ -3339,783 +3104,789 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="36"/>
-    </row>
-    <row r="14" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="36"/>
-    </row>
-    <row r="15" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="85.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="92.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="119.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:AMK113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:C113"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B95" activeCellId="0" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="21"/>
-    <col min="2" max="2" width="82.140625" style="21" customWidth="1"/>
-    <col min="3" max="1025" width="11.5703125" style="21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="82.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="20" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+    </row>
+    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="26"/>
+      <c r="B52" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="35" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="42" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="B70" s="34" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="C70" s="36"/>
+    </row>
+    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="36"/>
+      <c r="B71" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="36"/>
+    </row>
+    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="36"/>
+      <c r="B72" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="36"/>
+    </row>
+    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="36"/>
+      <c r="B73" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="36"/>
+    </row>
+    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="36"/>
+      <c r="B74" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="36"/>
+    </row>
+    <row r="75" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="27"/>
+      <c r="B75" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="36"/>
+    </row>
+    <row r="76" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="36"/>
+      <c r="B76" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="36"/>
+    </row>
+    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="36"/>
+      <c r="B77" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="36"/>
+    </row>
+    <row r="78" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="36"/>
+      <c r="B78" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="36"/>
+    </row>
+    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+    </row>
+    <row r="80" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="35" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B80" s="34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28" t="s">
+    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="36"/>
+      <c r="B81" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="36"/>
+      <c r="B82" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="36"/>
+      <c r="B83" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="36"/>
+      <c r="B84" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="27"/>
+      <c r="B85" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="36"/>
+      <c r="B86" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="36"/>
+      <c r="B87" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="36"/>
+      <c r="B88" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="36"/>
+      <c r="B89" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="36"/>
+      <c r="B90" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="36"/>
+      <c r="B91" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="42" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+      <c r="B92" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" s="36"/>
+    </row>
+    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="36"/>
+      <c r="B93" s="37" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="42" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="42" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="42" x14ac:dyDescent="0.25">
-      <c r="B24" s="33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="42" x14ac:dyDescent="0.25">
-      <c r="B28" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="42" x14ac:dyDescent="0.25">
-      <c r="B31" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="B39" s="33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="42" x14ac:dyDescent="0.25">
-      <c r="B40" s="33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="42" x14ac:dyDescent="0.25">
-      <c r="B41" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="42" x14ac:dyDescent="0.25">
-      <c r="B43" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="42" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="81" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="42" x14ac:dyDescent="0.25">
-      <c r="B59" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B60" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B64" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="B65" s="28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="81" x14ac:dyDescent="0.25">
-      <c r="B67" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C70" s="38"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
-      <c r="B71" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="38"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
-      <c r="B72" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="38"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
-      <c r="B73" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C73" s="38"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
-      <c r="B74" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="38"/>
-    </row>
-    <row r="75" spans="1:3" ht="84" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75" s="38"/>
-    </row>
-    <row r="76" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
-      <c r="B76" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" s="38"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
-      <c r="B77" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="38"/>
-    </row>
-    <row r="78" spans="1:3" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
-      <c r="B78" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C78" s="38"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
-    </row>
-    <row r="80" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A80" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" s="35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
-      <c r="B81" s="40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
-      <c r="B83" s="27" t="s">
+      <c r="C93" s="36"/>
+    </row>
+    <row r="94" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="36"/>
+      <c r="B94" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" s="36"/>
+    </row>
+    <row r="95" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="36"/>
+      <c r="B95" s="26" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
-      <c r="B84" s="27" t="s">
+      <c r="C95" s="36"/>
+    </row>
+    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="36"/>
+      <c r="B96" s="26" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="27" t="s">
+      <c r="C96" s="36"/>
+    </row>
+    <row r="97" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="27"/>
+      <c r="B97" s="26" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
-      <c r="B86" s="28" t="s">
+      <c r="C97" s="36"/>
+    </row>
+    <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="36"/>
+      <c r="B98" s="27" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
-      <c r="B87" s="28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="38"/>
-      <c r="B88" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="B89" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
-      <c r="B90" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
-      <c r="B91" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A92" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C92" s="38"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="38"/>
-      <c r="B93" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C93" s="38"/>
-    </row>
-    <row r="94" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A94" s="38"/>
-      <c r="B94" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C94" s="38"/>
-    </row>
-    <row r="95" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
-      <c r="B95" s="27" t="s">
+      <c r="C98" s="36"/>
+    </row>
+    <row r="99" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="36"/>
+      <c r="B99" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="36"/>
+    </row>
+    <row r="100" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="36"/>
+      <c r="B100" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="36"/>
+    </row>
+    <row r="101" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="36"/>
+      <c r="B101" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" s="36"/>
+    </row>
+    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="36"/>
+      <c r="B102" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" s="36"/>
+    </row>
+    <row r="103" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="36"/>
+      <c r="B103" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="36"/>
+    </row>
+    <row r="104" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="36"/>
+      <c r="B104" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" s="36"/>
+    </row>
+    <row r="105" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="36"/>
+      <c r="B105" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C95" s="38"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
-      <c r="B96" s="27" t="s">
+      <c r="C105" s="36"/>
+    </row>
+    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="36"/>
+      <c r="B106" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C96" s="38"/>
-    </row>
-    <row r="97" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
-      <c r="B97" s="27" t="s">
+      <c r="C106" s="36"/>
+    </row>
+    <row r="107" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="36"/>
+      <c r="B107" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C97" s="38"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
-      <c r="B98" s="28" t="s">
+      <c r="C107" s="36"/>
+    </row>
+    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="36"/>
+      <c r="B108" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C98" s="38"/>
-    </row>
-    <row r="99" spans="1:3" ht="81" x14ac:dyDescent="0.25">
-      <c r="A99" s="38"/>
-      <c r="B99" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C99" s="38"/>
-    </row>
-    <row r="100" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="38"/>
-      <c r="B100" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C100" s="38"/>
-    </row>
-    <row r="101" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="38"/>
-      <c r="B101" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C101" s="38"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="38"/>
-      <c r="B102" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C102" s="38"/>
-    </row>
-    <row r="103" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="38"/>
-      <c r="B103" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C103" s="38"/>
-    </row>
-    <row r="104" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A104" s="38"/>
-      <c r="B104" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C104" s="38"/>
-    </row>
-    <row r="105" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A105" s="38"/>
-      <c r="B105" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C105" s="38"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="38"/>
-      <c r="B106" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C106" s="38"/>
-    </row>
-    <row r="107" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A107" s="38"/>
-      <c r="B107" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C107" s="38"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="38"/>
-      <c r="B108" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="C108" s="38"/>
-    </row>
-    <row r="109" spans="1:3" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="38"/>
-      <c r="B109" s="28" t="s">
+      <c r="C108" s="36"/>
+    </row>
+    <row r="109" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="36"/>
+      <c r="B109" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C109" s="38"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
-      <c r="B110" s="28" t="s">
+      <c r="C109" s="36"/>
+    </row>
+    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="36"/>
+      <c r="B110" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C110" s="38"/>
-    </row>
-    <row r="111" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="38"/>
-      <c r="B111" s="28" t="s">
+      <c r="C110" s="36"/>
+    </row>
+    <row r="111" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="36"/>
+      <c r="B111" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C111" s="38"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="38"/>
-      <c r="B112" s="28" t="s">
+      <c r="C111" s="36"/>
+    </row>
+    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="36"/>
+      <c r="B112" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C112" s="38"/>
-    </row>
-    <row r="113" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="38"/>
-      <c r="B113" s="28" t="s">
+      <c r="C112" s="36"/>
+    </row>
+    <row r="113" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="36"/>
+      <c r="B113" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C113" s="38"/>
+      <c r="C113" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/User_Stories.xlsx
+++ b/User_Stories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Διεργασία" sheetId="1" state="visible" r:id="rId2"/>
@@ -647,7 +647,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">  βλέπει τη βαθμολογία των μαθημάτων του</t>
+      <t xml:space="preserve">βλέπει τη βαθμολογία των μαθημάτων του</t>
     </r>
   </si>
   <si>
@@ -3077,7 +3077,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
@@ -3310,7 +3310,7 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3590,8 +3590,8 @@
   </sheetPr>
   <dimension ref="A2:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C106" activeCellId="0" sqref="C106"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3706,7 +3706,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="34" t="s">
         <v>85</v>
       </c>

--- a/User_Stories.xlsx
+++ b/User_Stories.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="162">
   <si>
     <t xml:space="preserve"> Βήματα διεργασίας SCRUM</t>
   </si>
@@ -772,11 +772,27 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ο καθηγητής  εισάγει τη βαθμολογία των μαθήματων</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">στους φοιτητές</t>
+      <t xml:space="preserve">Ο καθηγητής  εισάγει τη βαθμολογία </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">στους φοιτητές του</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> μαθήματος</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2548,7 +2564,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2741,6 +2757,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -2986,7 +3008,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3077,7 +3099,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
@@ -3590,8 +3612,8 @@
   </sheetPr>
   <dimension ref="A2:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B112" activeCellId="0" sqref="B112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3739,64 +3761,60 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
+    <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="37" t="s">
         <v>53</v>
@@ -3809,39 +3827,39 @@
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="29"/>
       <c r="B45" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="29"/>
       <c r="B46" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3849,7 +3867,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3859,57 +3877,57 @@
     </row>
     <row r="52" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,49 +3949,49 @@
     <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="39"/>
       <c r="B65" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="39"/>
     </row>
     <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="39"/>
       <c r="B66" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" s="39"/>
     </row>
     <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="39"/>
       <c r="B67" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C67" s="39"/>
     </row>
     <row r="68" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="30"/>
       <c r="B68" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C68" s="39"/>
     </row>
     <row r="69" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="39"/>
       <c r="B69" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C69" s="39"/>
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="39"/>
       <c r="B70" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C70" s="39"/>
     </row>
     <row r="71" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="39"/>
       <c r="B71" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C71" s="39"/>
     </row>
@@ -3999,61 +4017,61 @@
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="39"/>
       <c r="B75" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="39"/>
       <c r="B76" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="39"/>
       <c r="B77" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="30"/>
       <c r="B78" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="39"/>
       <c r="B79" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="39"/>
       <c r="B80" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="39"/>
       <c r="B81" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="39"/>
       <c r="B82" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="39"/>
       <c r="B83" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="39"/>
       <c r="B84" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,7 +4079,7 @@
         <v>64</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C85" s="39"/>
     </row>
@@ -4075,140 +4093,140 @@
     <row r="87" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="39"/>
       <c r="B87" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C87" s="39"/>
     </row>
     <row r="88" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="39"/>
       <c r="B88" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C88" s="39"/>
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="39"/>
       <c r="B89" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C89" s="39"/>
     </row>
     <row r="90" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="30"/>
       <c r="B90" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C90" s="39"/>
     </row>
     <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="39"/>
       <c r="B91" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C91" s="39"/>
     </row>
     <row r="92" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="39"/>
       <c r="B92" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C92" s="39"/>
     </row>
     <row r="93" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="39"/>
       <c r="B93" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C93" s="39"/>
     </row>
     <row r="94" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="39"/>
       <c r="B94" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C94" s="39"/>
     </row>
     <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="39"/>
       <c r="B95" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C95" s="39"/>
     </row>
     <row r="96" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="39"/>
       <c r="B96" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C96" s="39"/>
     </row>
     <row r="97" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="39"/>
       <c r="B97" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C97" s="39"/>
     </row>
     <row r="98" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="39"/>
       <c r="B98" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C98" s="39"/>
     </row>
     <row r="99" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="39"/>
       <c r="B99" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C99" s="39"/>
     </row>
     <row r="100" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="39"/>
       <c r="B100" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C100" s="39"/>
     </row>
     <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="39"/>
       <c r="B101" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C101" s="39"/>
     </row>
     <row r="102" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="39"/>
       <c r="B102" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C102" s="39"/>
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="39"/>
       <c r="B103" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C103" s="39"/>
     </row>
     <row r="104" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="39"/>
       <c r="B104" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C104" s="39"/>
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="39"/>
       <c r="B105" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C105" s="39"/>
     </row>
     <row r="106" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="39"/>
       <c r="B106" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C106" s="39"/>
     </row>
@@ -4217,7 +4235,7 @@
         <v>67</v>
       </c>
       <c r="B108" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,91 +4247,91 @@
     <row r="110" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="39"/>
       <c r="B110" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="39"/>
       <c r="B111" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="39"/>
       <c r="B112" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="30"/>
       <c r="B113" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="39"/>
       <c r="B114" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="39"/>
       <c r="B115" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="39"/>
       <c r="B116" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="39"/>
       <c r="B117" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="39"/>
       <c r="B118" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="39"/>
       <c r="B119" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="39"/>
       <c r="B120" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="39"/>
       <c r="B121" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="39"/>
       <c r="B122" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="39"/>
       <c r="B123" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="39"/>
       <c r="B124" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/User_Stories.xlsx
+++ b/User_Stories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Διεργασία" sheetId="1" state="visible" r:id="rId2"/>
@@ -170,7 +170,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Στο UI εισάγω τα διαπιστευτήριά μου (αριθμος μητρωου, κωδικος) με τα οποία, μετά τον έλεγχο, εισάγομαι στην εφαρμογή.</t>
+    <t xml:space="preserve">Στο UI εισάγω τα διαπιστευτήριά μου (ονομα χρηστη, κωδικος) με τα οποία, μετά τον έλεγχο, εισάγομαι στην εφαρμογή.</t>
   </si>
   <si>
     <t xml:space="preserve">US02</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">US05</t>
   </si>
   <si>
-    <t xml:space="preserve">Ως καθηγητής,θέλω να έχω δυνατότητα να Εισάγω  Βαθμολογία στους μαθητές που παρακολουθούν το μάθημα/μαθήματα που διδάσκω.</t>
+    <t xml:space="preserve">Ως καθηγητής,θέλω να έχω δυνατότητα να Εισάγω  Βαθμολογία στους φοιτιτές/τριες που παρακολουθούν το μάθημα/μαθήματα που διδάσκω(είτε είναι θεωρία ειτέ είναι εργαστήρια).</t>
   </si>
   <si>
     <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Δηλωση Βαθμολογιας" το οποιο θα οδηγει τον καθηγητη στη φορμα δηλωσης βαθμολογιας φοιτητων.</t>
@@ -772,26 +772,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ο καθηγητής  εισάγει τη βαθμολογία </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">στους φοιτητές του</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> μαθήματος</t>
+      <t xml:space="preserve">Ο καθηγητής  εισάγει τη βαθμολογία στους φοιτητές του μαθήματος</t>
     </r>
   </si>
   <si>
@@ -2564,7 +2545,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2757,12 +2738,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -3008,7 +2983,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3099,7 +3074,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
@@ -3332,8 +3307,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3612,7 +3587,7 @@
   </sheetPr>
   <dimension ref="A2:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>

--- a/User_Stories.xlsx
+++ b/User_Stories.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="155">
   <si>
     <t xml:space="preserve"> Βήματα διεργασίας SCRUM</t>
   </si>
@@ -298,10 +298,10 @@
     <t xml:space="preserve">US11</t>
   </si>
   <si>
-    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω και να αφαιρω καθηγητη/-ες απο το συστημα.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Επεξεργασια Καθηγητων" η οποια θα τον οδηγει στο περιβαλλον διαχειρισης καθηγητων.</t>
+    <t xml:space="preserve">Ως φοιτητης,θελω να εχω δυνατοτητα να δηλωνω μαθηματα κατα την δηλωσω των μαθηματων.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο φοιτητης θα μπαινει στο συστημα θα υπαρχει επιλογη “Δηλωση Μαθηματων” η οποια θα τον οδηγει στο περιβαλλον δηλωσης μαθηματων οπου θα μπορει να επιλεγει τα μαθηματα και εργαστηρια τα οποια θελει να παρακολουθηση.</t>
   </si>
   <si>
     <t xml:space="preserve">User story</t>
@@ -1149,7 +1149,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [χ κωδικοι δημιουργηθηκαν][διαδρομη για το ονομα αρχειου]</t>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [χ κωδικοι δημιουργηθηκαν][διαδρομη για το ονομα αρχειου με τους κωδικους]</t>
     </r>
   </si>
   <si>
@@ -1438,7 +1438,7 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">Φοιτητης αλλαζει τον κωδικο του.</t>
+      <t xml:space="preserve">Χρηστης αλλαζει τον κωδικο του.</t>
     </r>
   </si>
   <si>
@@ -1701,7 +1701,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου και μια φορμα με πεδια ΑΜ φοιτητη και κουμπι Προσθηκη Φοιτητη στο εργαστηριο.</t>
+      <t xml:space="preserve">το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου και μια λιστα με ολους του φοιτιτες που παρακολουθουν τη θεωρια αλλα δεν βρισκονται στο εργαστηριο που διαλεξα σε μορφη [Ονομα Χρηστη Φοιτιτ][Προσθηκη στο εργαστηριο]</t>
     </r>
   </si>
   <si>
@@ -1725,7 +1725,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">γεμισω το πεδιο ΑΜ και πατησω το κουμπι Προσθηκη Φοιτητη Στο Εργαστηριο,</t>
+      <t xml:space="preserve">πατησω το κουμπι Προσθηκη,</t>
     </r>
   </si>
   <si>
@@ -1763,6 +1763,80 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Φοιτητη] προστεθηκε επιτυχως.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω/αφαιρω απουσιες στους φοιτιτες που παρακολουθουν το εργαστηριο </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Καθηγητης Εργαστηριου αυξανη τις απουσιες καποιου φοιτητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου οπου υπαρχει μια λιστα με ολους του φοιτητες της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Κουμπι Αυξηση Απουσιων][Μειωση Απουσιων].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Οταν </t>
     </r>
     <r>
@@ -1773,7 +1847,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Προσθηκη,</t>
+      <t xml:space="preserve">πατησω το κουμπι Αυξηση Απουσιων σε εναν φοιτητη,</t>
     </r>
   </si>
   <si>
@@ -1797,11 +1871,56 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Φοιτητη] προστεθηκε επιτυχως.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω/αφαιρω απουσιες στους φοιτιτες που παρακολουθουν το εργαστηριο </t>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Κουμπι Αυξηση Απουσιων][Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Αυξηση Απουσιων,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων] Απουσιες Αυξηθηκαν κατα ενα.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1823,7 +1942,7 @@
         <family val="2"/>
         <charset val="161"/>
       </rPr>
-      <t xml:space="preserve">Καθηγητης Εργαστηριου αυξανη τις απουσιες καποιου φοιτητη.</t>
+      <t xml:space="preserve">Καθηγητης Εργαστηριου μειωνει τις απουσιες καποιου φοιτητη.</t>
     </r>
   </si>
   <si>
@@ -1847,7 +1966,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου οπου υπαρχει μια λιστα με ολους του φοιτητες της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Κουμπι Αυξηση Απουσιων][Μειωση Απουσιων].</t>
+      <t xml:space="preserve">το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου οπου υπαρχει μια λιστα με ολους του φοιτητες της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Κουμπι Αυξηση Απουσιων][Κουμπι Μειωση Απουσιων].</t>
     </r>
   </si>
   <si>
@@ -1871,7 +1990,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Αυξηση Απουσιων σε εναν φοιτητη,</t>
+      <t xml:space="preserve">πατησω το κουμπι Μειωση Απουσιων,</t>
     </r>
   </si>
   <si>
@@ -1895,7 +2014,129 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Κουμπι Αυξηση Απουσιων][Ακυρωση]</t>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Κουμπι Μειωση Απουσιων][Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων] Απουσιες Μειωθηκαν κατα ενα.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως φοιτητης,θελω να εχω δυνατοτητα να δηλωνω μαθηματα.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Φοιτητης δηλωνει μαθηματα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> οτι ειμαι συνδεδεμενος στο συστημα ωσ φοιτιτης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> βαζω πατησω “Δηλωση Μαθηματων” απο το μενου,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">μου ανηγει την φορμα δηλωσης μαθηματων με τη λιστα των μαθηματων που μπορω να δηλωσω οπου διπλα στα μαθηματα θεωριας υπαρχει ενα checkbox [Θελω Να Παρακολουθησω],ενω διπλα στα μαθηματα εργαστηριων η λιστα των εργαστηριων με τη μορφη [Ονομα Εργαστηριου][Ωρα][Ελευθερες θεσεις\Συνολικες Θεσεις][Κουμπι Επιβεβαιωσης].Και ενα κουμπι “Τελικη Υποβολη”</t>
     </r>
   </si>
   <si>
@@ -1919,7 +2160,31 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Αυξηση Απουσιων,</t>
+      <t xml:space="preserve">συμπληρωσω τα μαθηματα που θελω να παρακολουθησω</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω το κουμπι “Τελικη Υποβολη”,</t>
     </r>
   </si>
   <si>
@@ -1943,597 +2208,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων] Απουσιες Αυξηθηκαν κατα ενα.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Σενάριο: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Καθηγητης Εργαστηριου μειωνει τις απουσιες καποιου φοιτητη.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου οπου υπαρχει μια λιστα με ολους του φοιτητες της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Κουμπι Αυξηση Απουσιων][Κουμπι Μειωση Απουσιων].</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Μειωση Απουσιων,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Κουμπι Μειωση Απουσιων][Ακυρωση]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων] Απουσιες Μειωθηκαν κατα ενα.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω και να αφαιρω καθηγητη απο το συστημα.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Σενάριο: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Ο Διαχειριστης αφαιρη καθηγητη.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Δεδομένου </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως διαχειριστης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Όταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">παταω στο μενου την επιλογη “Επεξεργασιας Καθηγητων”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τότε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα μου ανοιγε την φορμα επεξεργασιας καθηγητων στην οποια υπαρχει (1) η λιστα των υπαρχοντων καθηγητων σε μορφη </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Ονομα Καθηγητη][Κουμπι Διαγραφη][Κουμπι Επεξεργασιας]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> και (2)φορμα με τα πεδια για την προσθηκη καινουριου καθηγητη.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> πατησω το κουμπι Διαγραφη διπλα σε καποιον υπαρχοντο καθηγητη</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> το συστημα ζηταει να επιβεβαιωσω την διαγραφη του καθηγητ με μηνυμα της μορφης </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Θελετε να διαγραψετε καθηγητη][Ονομα Καθηγητη]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> με δυο κουμπια </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Ναι]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> και </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Οχι]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Και</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> οταν πατησω το κουμπι </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Ναι]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> το συστημα εμφανιζει μηνυμα της μορφης </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Ο\Η καθηγητης/ρια] [Ονομα Καθηγητη] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">αφαιρεθηκε επιτυχως.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Σενάριο: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Ο Διαχειριστης προσθετη καθηγητη.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τότε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα μου ανοιγε την φορμα επεξεργασιας καθηγητων,στην οποια υπαρχει (1) η λιστα των υπαρχοντων καθηγητων σε μορφη </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Ονομα Καθηγητη][Κουμπι Διαγραφη][Επεξεργασιας]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> και (2)φορμα με τα πεδια για την προσθηκη καινουριου καθηγητη.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> γεμισω την φορμα – ονομα καθηγητη,επιθετο καθηγητη,ημ. Γεννησης,προσωπικη ιστοσελιδα,εμπιρεια σε χρονια,email,κωιδκος καθηγητη</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Και</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> πατησω το κουμπι προσθηκη,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> το συστημα εμφανιζει μηνυμα της μορφης </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Ο\Η καθηγητης/ρια][Ονομα Καθηγητη] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">προστεθηκε επιτυχως.</t>
+      <t xml:space="preserve">το συστημα υποβαλη τη δηλωση μου.</t>
     </r>
   </si>
 </sst>
@@ -2545,7 +2220,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2747,14 +2422,6 @@
       <family val="2"/>
       <charset val="161"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2822,7 +2489,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2984,10 +2651,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3074,7 +2737,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
@@ -3307,8 +2970,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3488,7 +3151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="55.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="84.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
         <v>67</v>
       </c>
@@ -3498,7 +3161,9 @@
       <c r="C14" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="20" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="19"/>
@@ -3587,8 +3252,8 @@
   </sheetPr>
   <dimension ref="A2:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3832,7 +3497,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="30" t="s">
         <v>107</v>
       </c>
@@ -3921,7 +3586,7 @@
       </c>
       <c r="C64" s="39"/>
     </row>
-    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="39"/>
       <c r="B65" s="28" t="s">
         <v>120</v>
@@ -4019,13 +3684,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="39"/>
       <c r="B80" s="30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="39"/>
       <c r="B81" s="30" t="s">
         <v>132</v>
@@ -4040,13 +3705,13 @@
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="39"/>
       <c r="B83" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="39"/>
       <c r="B84" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,7 +3719,7 @@
         <v>64</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C85" s="39"/>
     </row>
@@ -4068,7 +3733,7 @@
     <row r="87" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="39"/>
       <c r="B87" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C87" s="39"/>
     </row>
@@ -4103,42 +3768,42 @@
     <row r="92" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="39"/>
       <c r="B92" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C92" s="39"/>
     </row>
     <row r="93" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="39"/>
       <c r="B93" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C93" s="39"/>
     </row>
     <row r="94" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="39"/>
       <c r="B94" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C94" s="39"/>
     </row>
     <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="39"/>
       <c r="B95" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95" s="39"/>
     </row>
     <row r="96" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="39"/>
       <c r="B96" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96" s="39"/>
     </row>
     <row r="97" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="39"/>
       <c r="B97" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" s="39"/>
     </row>
@@ -4173,44 +3838,44 @@
     <row r="102" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="39"/>
       <c r="B102" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C102" s="39"/>
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="39"/>
       <c r="B103" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C103" s="39"/>
     </row>
     <row r="104" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="39"/>
       <c r="B104" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C104" s="39"/>
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="39"/>
       <c r="B105" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C105" s="39"/>
     </row>
     <row r="106" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="39"/>
       <c r="B106" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C106" s="39"/>
     </row>
-    <row r="108" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B108" s="41" t="s">
-        <v>148</v>
+      <c r="B108" s="37" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4222,93 +3887,59 @@
     <row r="110" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="39"/>
       <c r="B110" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="39"/>
       <c r="B111" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="39"/>
+      <c r="B112" s="30" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="39"/>
-      <c r="B112" s="29" t="s">
+    <row r="113" customFormat="false" ht="132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="39"/>
+      <c r="B113" s="30" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="30"/>
-      <c r="B113" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="39"/>
       <c r="B114" s="30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="39"/>
       <c r="B115" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="39"/>
       <c r="B116" s="30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="39"/>
-      <c r="B117" s="30" t="s">
-        <v>156</v>
-      </c>
+      <c r="B117" s="30"/>
     </row>
     <row r="118" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="39"/>
-      <c r="B118" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="39"/>
-      <c r="B119" s="29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="39"/>
-      <c r="B120" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="39"/>
-      <c r="B121" s="29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="39"/>
-      <c r="B122" s="30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="39"/>
-      <c r="B123" s="30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="39"/>
-      <c r="B124" s="30" t="s">
-        <v>161</v>
-      </c>
-    </row>
+      <c r="B118" s="30"/>
+    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/User_Stories.xlsx
+++ b/User_Stories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Διεργασία" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="180">
   <si>
     <t xml:space="preserve"> Βήματα διεργασίας SCRUM</t>
   </si>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">US07</t>
   </si>
   <si>
-    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο μαθημα,θελω να εχω δυνατοτητα να οριζω τον αλγοριθμο βαση του οποιου θα υπολογιζεται ο τελικος βαθμος των φοιτητων στο μαθημα.</t>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο μαθημα θεωριας,θελω να εχω δυνατοτητα να οριζω τον αλγοριθμο βαση του οποιου θα υπολογιζεται ο τελικος βαθμος των φοιτητων στο μαθημα.</t>
   </si>
   <si>
     <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα μαθηματα μου” οπου,διαλεγωντας το μαθημα,θα του ανοιγει φορμα οπου,εκτος αλλων,θα μπορει να δηλωνει ποσοστα συμμετοχης διαφορων βαθμων του μαθηματος στον τελικο βαθμο(πχ,εργαστηριο,θεωρια και εργασιας)</t>
@@ -304,6 +304,24 @@
     <t xml:space="preserve">Οταν ο φοιτητης θα μπαινει στο συστημα θα υπαρχει επιλογη “Δηλωση Μαθηματων” η οποια θα τον οδηγει στο περιβαλλον δηλωσης μαθηματων οπου θα μπορει να επιλεγει τα μαθηματα και εργαστηρια τα οποια θελει να παρακολουθηση.</t>
   </si>
   <si>
+    <t xml:space="preserve">US12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω μαθημα στο ΠΣ για να μπορω να δηλωνω καινουρια μαθηματα.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Επεξεργασιας Μαθηματων” η οποια θα οδηγει τον διαχειριστη στο περιβαλλον διαχειρησης μαθηματων.Οπου,συμπληρωνοντας ολα τα πεδια,θα υπαρχει κουμπι προσθηκη για προσθηκη μαθηματος στο ΠΣ(ειτε εργαστηριο ειτε θεωρια)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποια θεωρια,θελω να εχω δυνατοτητα να προσθετω προαπαιτουμενα μαθηματα της θεωριας μου.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Οταν ο καθηγητης θεωριας μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Επεξεργασια Θεωριας”,το οποιο θα πηγαινει τον καθηγητη στο περιβαλλον επεξεργασιας των μαθηματων θεωριας που διδασκει και οπου,εκτος αλλον,θα υπαρχει κουμπι “Προσθηκη Προαπαιτουμενου” με το οποιο θα προσθετει προαπαιτουμενα μαθηματα στη θεωρια.</t>
+  </si>
+  <si>
     <t xml:space="preserve">User story</t>
   </si>
   <si>
@@ -2209,6 +2227,470 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">το συστημα υποβαλη τη δηλωση μου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Προσθηκη καινουριου μαθηματος</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως διαχεριστης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταων στο μενου το κουμπι Επεξεργασιας Μαθηματων</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα μου ανοιγει το περιβαλλον επεξεργασιας μαθηματων οπου υπαρχει (1) λιστα με τα υπαρχοντα μαθηματα σε μορφη </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Ονομα Μαθηματος][Διαγραφη][Επεξεργασιας]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> και (2) φορμα προσθηκης καινουριου μαθηματος.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> γεμισω την φορμα – ονομα μαθηματος,εξαμηνο,αν εχει εργαστηριακο μερος(αν ειναι μαθημα θεωριας),Ονομα καθηγητη που διδασκει την θεωρια/εργαστηριο,τα προαπαιτοθμενα μαθηματα θεωριας(αν ειναι θεωρια)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατησω το κουμπι προσθηκη</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα εμφανιζει μηνυμα της μορφης </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Ονομα Μαθηματος]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> προστεθηκε επιτυχως.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποια θεωρια,θελω να εχω δυνατοτητα να προσθετω προαπαιτουμενα μαθηματα της θεωριας μου. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Προσθηκη προαπαιτουμενου για θεωρια απο καθηγητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομενου</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> παταω στο μενου το κουμπι “Επεξεργασια Θεωριας”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας των μαθηματων θεωριας που διδασκω,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> διαλεξω ενα μαθημα θεωριας που διδασκω,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα εμφανιζει πληροφοριες σχετικα με το μαθηματα και οπου υπαρχει το κουμπι “Προσθηκη Προαπαιτουμενου”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατησω το κουμπι “Προσθηκη Προαπαιτουμενου”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα εμφανιζει μια λιστα με θεωριες,οι οποιες μπορουν να δηλωθουν ως προαπαιτουμενα της θεωριας που διδασκω</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> δηλωσω το/τα προαπαιτουμενο/α</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατησω το κουμπι Αποθηκευση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα εμφανιζει μηνυμα της μορφης [Θεωρια][Λιστα Προαπαιτουμενον][Προστεθηκαν Επιτυχως]</t>
     </r>
   </si>
 </sst>
@@ -2220,7 +2702,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2422,6 +2904,14 @@
       <family val="2"/>
       <charset val="161"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2489,7 +2979,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2654,6 +3144,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2737,7 +3235,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
@@ -2970,8 +3468,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3165,13 +3663,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+    <row r="15" customFormat="false" ht="88.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="135.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19"/>
@@ -3252,8 +3764,8 @@
   </sheetPr>
   <dimension ref="A2:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B141" activeCellId="0" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3268,7 +3780,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,39 +3788,39 @@
         <v>40</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="28" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="29" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="29" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29"/>
       <c r="B9" s="29" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,39 +3832,39 @@
         <v>43</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="28" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="29" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="29" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29"/>
       <c r="B16" s="30" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="29"/>
       <c r="B17" s="29" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,32 +3872,32 @@
         <v>46</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="33" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="34" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="35" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="35" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="35" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,68 +3905,68 @@
         <v>49</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="33" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="35" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="35" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="35" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="35" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="35" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="35" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="35" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="35" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="35" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="36" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B40" s="37" t="s">
         <v>53</v>
@@ -3462,44 +3974,44 @@
     </row>
     <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="28" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="29" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="29" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="29"/>
       <c r="B45" s="30" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="29"/>
       <c r="B46" s="29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="30" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="30" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3507,67 +4019,67 @@
         <v>55</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="28" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="30" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="30" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="30" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="30" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="30" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="30" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="30" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="30" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="30" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="30" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3582,56 +4094,56 @@
     <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="39"/>
       <c r="B64" s="40" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C64" s="39"/>
     </row>
     <row r="65" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="39"/>
       <c r="B65" s="28" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C65" s="39"/>
     </row>
     <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="39"/>
       <c r="B66" s="29" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C66" s="39"/>
     </row>
     <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="39"/>
       <c r="B67" s="29" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C67" s="39"/>
     </row>
     <row r="68" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="30"/>
       <c r="B68" s="29" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C68" s="39"/>
     </row>
     <row r="69" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="39"/>
       <c r="B69" s="30" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C69" s="39"/>
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="39"/>
       <c r="B70" s="30" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C70" s="39"/>
     </row>
     <row r="71" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="39"/>
       <c r="B71" s="30" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C71" s="39"/>
     </row>
@@ -3651,67 +4163,67 @@
     <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="39"/>
       <c r="B74" s="40" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="39"/>
       <c r="B75" s="28" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="39"/>
       <c r="B76" s="29" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="39"/>
       <c r="B77" s="29" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="30"/>
       <c r="B78" s="29" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="39"/>
       <c r="B79" s="30" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="39"/>
       <c r="B80" s="30" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="39"/>
       <c r="B81" s="30" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="39"/>
       <c r="B82" s="30" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="39"/>
       <c r="B83" s="30" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="39"/>
       <c r="B84" s="30" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3719,154 +4231,154 @@
         <v>64</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C85" s="39"/>
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="39"/>
       <c r="B86" s="40" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C86" s="39"/>
     </row>
     <row r="87" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="39"/>
       <c r="B87" s="28" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C87" s="39"/>
     </row>
     <row r="88" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="39"/>
       <c r="B88" s="29" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C88" s="39"/>
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="39"/>
       <c r="B89" s="29" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C89" s="39"/>
     </row>
     <row r="90" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="30"/>
       <c r="B90" s="29" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C90" s="39"/>
     </row>
     <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="39"/>
       <c r="B91" s="30" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C91" s="39"/>
     </row>
     <row r="92" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="39"/>
       <c r="B92" s="30" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C92" s="39"/>
     </row>
     <row r="93" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="39"/>
       <c r="B93" s="30" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C93" s="39"/>
     </row>
     <row r="94" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="39"/>
       <c r="B94" s="30" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C94" s="39"/>
     </row>
     <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="39"/>
       <c r="B95" s="30" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C95" s="39"/>
     </row>
     <row r="96" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="39"/>
       <c r="B96" s="30" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C96" s="39"/>
     </row>
     <row r="97" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="39"/>
       <c r="B97" s="28" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C97" s="39"/>
     </row>
     <row r="98" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="39"/>
       <c r="B98" s="29" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C98" s="39"/>
     </row>
     <row r="99" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="39"/>
       <c r="B99" s="29" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C99" s="39"/>
     </row>
     <row r="100" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="39"/>
       <c r="B100" s="29" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C100" s="39"/>
     </row>
     <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="39"/>
       <c r="B101" s="30" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C101" s="39"/>
     </row>
     <row r="102" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="39"/>
       <c r="B102" s="30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C102" s="39"/>
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="39"/>
       <c r="B103" s="30" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C103" s="39"/>
     </row>
     <row r="104" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="39"/>
       <c r="B104" s="30" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C104" s="39"/>
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="39"/>
       <c r="B105" s="30" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C105" s="39"/>
     </row>
     <row r="106" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="39"/>
       <c r="B106" s="30" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C106" s="39"/>
     </row>
@@ -3875,64 +4387,186 @@
         <v>67</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="39"/>
       <c r="B109" s="40" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="39"/>
       <c r="B110" s="28" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="39"/>
       <c r="B111" s="29" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="39"/>
       <c r="B112" s="30" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="39"/>
       <c r="B113" s="30" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="39"/>
       <c r="B114" s="30" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="39"/>
       <c r="B115" s="30" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="39"/>
       <c r="B116" s="30" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="39"/>
       <c r="B117" s="30"/>
     </row>
-    <row r="118" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="39"/>
-      <c r="B118" s="30"/>
+    <row r="118" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" s="41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="39"/>
+      <c r="B119" s="40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="39"/>
+      <c r="B120" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="39"/>
+      <c r="B121" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="39"/>
+      <c r="B122" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="39"/>
+      <c r="B123" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="39"/>
+      <c r="B124" s="42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="39"/>
+      <c r="B125" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="39"/>
+      <c r="B126" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B128" s="41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="39"/>
+      <c r="B129" s="40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="39"/>
+      <c r="B130" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="35" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/User_Stories.xlsx
+++ b/User_Stories.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="183">
   <si>
     <t xml:space="preserve"> Βήματα διεργασίας SCRUM</t>
   </si>
@@ -238,7 +238,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Πατώντας  την επιλογή ¨Βαθμολογία” από το μενού,θα μπορεί ο φοιτητης/τρια χρήστης να βλέπει τις βαθμολογίες του. </t>
+    <t xml:space="preserve">Πατώντας  την επιλογή ¨Κατασταση Μου” από το μενού,θα μπορεί ο φοιτητης/τρια χρήστης να βλέπει τις βαθμολογίες του. </t>
   </si>
   <si>
     <t xml:space="preserve">US05</t>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">Ως καθηγητής,θέλω να έχω δυνατότητα να Εισάγω  Βαθμολογία στους φοιτιτές/τριες που παρακολουθούν το μάθημα/μαθήματα που διδάσκω(είτε είναι θεωρία ειτέ είναι εργαστήρια).</t>
   </si>
   <si>
-    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Δηλωση Βαθμολογιας" το οποιο θα οδηγει τον καθηγητη στη φορμα δηλωσης βαθμολογιας φοιτητων.</t>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου κουμπι "Μαθηματα Μου" το οποιο θα οδηγει τον καθηγητη στο μενου οπου μπορει να επιλεξει τον τυπο του μαθηματος(Θεωρια/Εργαστηριο).Μετα την επιλογη,θα του εμφανιστουν ολα τα μαθηματα του τυπου που διαλεξε τα οποια διδασκει.Οταν επιλεξει ενα μαθημα,θα οδηγηθει σε μια φορμα οπου υπαρχει κουμπι Δηλωση Βαθμολογιας,το οποιο θα καθοδηγει τον καθηγητη στην φορμα δηλωσης βαθμολογιας για φοιτιτες που παρακολουθουν το μαθημα που διαλεξε.</t>
   </si>
   <si>
     <t xml:space="preserve">U06</t>
@@ -256,7 +256,7 @@
     <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να δημιουργω χ αριθμο κωδικων για χ φοιττηες.</t>
   </si>
   <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Φοιτητες” η οποια θα τον οδηγει στο περιβαλλον διαχειρησης φοιτητων.Εκει,εκτος αλλων,θα υπαρχει κουμπι “Δημιουργια Κωδικων Φοιτητων” με το οποιο θα μπορει να δημιουργει παραμετρικο αριθμο φοιτητων</t>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Φοιτητες” η οποια θα τον οδηγει στο περιβαλλον διαχειρησης φοιτητων.Εκει,εκτος αλλων,θα υπαρχει φορμα για δημιουργια λογαριασμων φοιτητων,συμπληρωνοντας την οποια και πατωντας το κουμπι “Παραγωγη”,θα μπορει ο διαχειριστης να δημιουργει χ λογαριασμους και να τους αποθηκευσει σε αρχειο</t>
   </si>
   <si>
     <t xml:space="preserve">US07</t>
@@ -265,7 +265,7 @@
     <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο μαθημα θεωριας,θελω να εχω δυνατοτητα να οριζω τον αλγοριθμο βαση του οποιου θα υπολογιζεται ο τελικος βαθμος των φοιτητων στο μαθημα.</t>
   </si>
   <si>
-    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα μαθηματα μου” οπου,διαλεγωντας το μαθημα,θα του ανοιγει φορμα οπου,εκτος αλλων,θα μπορει να δηλωνει ποσοστα συμμετοχης διαφορων βαθμων του μαθηματος στον τελικο βαθμο(πχ,εργαστηριο,θεωρια και εργασιας)</t>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα μαθηματα μου” οπου διαλεγωντας τον τυπο θεωριες,θα μου εμφανιζονται ολα τα μαθηματα θεωριας που διδασκω,και πατωντας σε μια θεωρια,θα του εμφανιζεται περιβαλλον διαχειριστης θεωριας οπου,εκτος αλλων,θα υπαρχει κουμπι “Δηλωση Αλγοριθμου”.Οταν πατηθει το κουμπι Δηλωση Αλγοριθμου,θα εμφανιστει μια φορμα οπου ο καθηγητης μπορει να συμπληρωσει τα ποσοστα συμμετοχης των βαθμων θεωριας και εργααστηριου και να τα αποθηκευση.</t>
   </si>
   <si>
     <t xml:space="preserve">US08</t>
@@ -283,7 +283,7 @@
     <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω φοιτητες στο εργαστηριο.</t>
   </si>
   <si>
-    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει δυνατοτηα προσθηκης φοιτητη.</t>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα μαθηματα μου” οπου διαλεγωντας τον τυπο εργαστηρια,θα του εμφανιζονται ολα τα εργαστηρια που διδασκει.Διαλεγωντας ενα εργαστηριο,θα του ανοιγει περιβαλλον επεξεργασιας εργαστηριου οπου,εκτος αλλων,θα υπαρχει δυνατοτηα προσθηκης φοιτητη.</t>
   </si>
   <si>
     <t xml:space="preserve">US10</t>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω/αφαιρω απουσιες στους φοιτιτες που παρακολουθουν το εργαστηριο</t>
   </si>
   <si>
-    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα εργαστηρια μου” οπου,διαλεγωντας το εργαστηριο,θα του ανοιγει φορμα οπου,εκτος αλλων,θα υπαρχει λιστα φοιτητων και κουμπι “Αυξηση απουσιων” και κουμπι “Μειωση απουσιων” διπλα σε καθε φοιτητη.</t>
+    <t xml:space="preserve">Οταν ο καθηγητης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Τα μαθηματα μου” οπου διαλεγωντας τον τυπο εργαστηριο,θα του εμφανιζονται ολα τα εργαστηρια που διδασκει.Διαλεγωντας ενα εργαστηριο,θα του ανοιγει περιβαλλον επεξεργασιας εργαστηριου οπου,εκτος αλλων,θα υπαρχει κουμπι “Απουσιες”,το οποιο θα τον οδηγει στο περιβαλλον επεξεργασιας απουσιων οπου υπαρχει λιστα φοιτητων του εργαστηριου και κουμπι “Αυξηση απουσιων” και κουμπι “Μειωση απουσιων” διπλα σε καθε φοιτητη.</t>
   </si>
   <si>
     <t xml:space="preserve">US11</t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">Ως διαχειριστης,θελω να εχω δυνατοτητα να προσθετω μαθημα στο ΠΣ για να μπορω να δηλωνω καινουρια μαθηματα.</t>
   </si>
   <si>
-    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Επεξεργασιας Μαθηματων” η οποια θα οδηγει τον διαχειριστη στο περιβαλλον διαχειρησης μαθηματων.Οπου,συμπληρωνοντας ολα τα πεδια,θα υπαρχει κουμπι προσθηκη για προσθηκη μαθηματος στο ΠΣ(ειτε εργαστηριο ειτε θεωρια)</t>
+    <t xml:space="preserve">Οταν ο διαχειριστης μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη "Προσθηκη Μαθηματος” η οποια θα οδηγει τον διαχειριστη στη φορμα για προσθηκη μαθηματος.Οπου συμπληρωνοντας ολα τα πεδια,θα υπαρχει κουμπι προσθηκη για προσθηκη μαθηματος στο ΠΣ(ειτε εργαστηριο ειτε θεωρια)</t>
   </si>
   <si>
     <t xml:space="preserve">US13</t>
@@ -319,7 +319,7 @@
     <t xml:space="preserve">Ως καθηγητης που διδασκω καποια θεωρια,θελω να εχω δυνατοτητα να προσθετω προαπαιτουμενα μαθηματα της θεωριας μου.</t>
   </si>
   <si>
-    <t xml:space="preserve">Οταν ο καθηγητης θεωριας μπαινει στο συστημα,θα υπαρχει στο μενου επιλογη “Επεξεργασια Θεωριας”,το οποιο θα πηγαινει τον καθηγητη στο περιβαλλον επεξεργασιας των μαθηματων θεωριας που διδασκει και οπου,εκτος αλλον,θα υπαρχει κουμπι “Προσθηκη Προαπαιτουμενου” με το οποιο θα προσθετει προαπαιτουμενα μαθηματα στη θεωρια.</t>
+    <t xml:space="preserve">Οταν ο καθηγητης θεωριας μπαινει στο συστημα,θα υπαρχει στο μενου κουμπι “Τα Μαθηματα Μου”.Πατωντας το κουμπι αυτο και επειτα διαλεγωντας τις Θεωριες,θα του εμφανιζεται λιστα με ολες τις θεωριες που διδασκει.Οταν διαλεξει μια θεωρια,θα του εμφανιστει περιβαλλον επεξεργασιας θεωριας οπου,εκτος αλλων,θα υπαρχει κουμπι Προσθηκη Προαπαιτουμενων</t>
   </si>
   <si>
     <t xml:space="preserve">User story</t>
@@ -711,7 +711,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> πατάω το κουμπί “ Βαθμολογία “</t>
+      <t xml:space="preserve"> πατάω το κουμπί “ Κατασταση “</t>
     </r>
   </si>
   <si>
@@ -836,7 +836,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> πατάω το κουμπί “Εισαγωγή βαθμολογίας”</t>
+      <t xml:space="preserve"> πατάω το κουμπί “Τα Μαθηματα μου”</t>
     </r>
   </si>
   <si>
@@ -859,7 +859,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">το σύστημα μου εμφανιζει ενα μενού από το οποίο επιλέγω το [ΜΑΘΗΜΑ] και το τύπο του μαθήματος[ΘΕΩΡΙΑ][ΕΡΓΑΣΤΗΡΙΟ]</t>
+      <t xml:space="preserve">το σύστημα μου εμφανιζει ενα μενού από το οποίο επιλέγω τον τύπο του μαθήματος[ΘΕΩΡΙΑ][ΕΡΓΑΣΤΗΡΙΟ]</t>
     </r>
   </si>
   <si>
@@ -882,6 +882,52 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">επιλεξω τον τυπο,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα μου εμφανιζει ολα τα μαθηματα αυτου του τυπου που διδασκω</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">επιλέξω το μάθημα στο οποίο θέλω να καταχωρύσω τη βαθμολογία </t>
     </r>
   </si>
@@ -905,17 +951,1600 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> το σύστημα μου εμφανιίζει αυτόματα όλους τους φοιτητές που παρακολουθούν το συγκεκριμένο μάθημα</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+      <t xml:space="preserve"> το σύστημα μου εμφανιίζει το περιβαλλον επεξεργασιας του μαθηματος</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι “Εισαγωγη Βαθμολογιας”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα μου εμφανιζει ολους του φοιτιτες που παρακολουθουν το μαθημα σε μορφη [Στοιχεια Φοιτιτη][Input για Βαθμο][Αποθηκευση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατήσω το κουμπί “Αποθηκευση “</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα αποθηκεύει τη βαθμολογία του φοιτητή</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">US06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ο διαχειριστης παραγει εναν αριθμο κωδικων.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος ως διαχειριστης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταων στο μενου το κουμπι Φοιτητες,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας φοιτητων οπου υπαρχει φορμα παραγωγης κωδικων φοιτητων </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">γεμισω τα πεδια ,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Παραγωγη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [χ κωδικοι δημιουργηθηκαν][διαδρομη για το ονομα αρχειου με τους κωδικους]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο μαθημα,θελω να εχω δυνατοτητα να οριζω τον αλγοριθμο βαση του οποιου θα υπολογιζεται ο τελικος βαθμος των φοιτητων στο μαθημα. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ο καθηγητης οριζει τον αλγοριθμο υπολογισμου του τελικου βαθμου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">επιλεγω απο το μενου την επιλογη Τα μαθηματα μου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">επιλεξω τον τυπο του μαθηματος Θεωρια,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει ολες τις θεωριες που διδασκω.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω πανω σε μια θεωρια,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας της θεωριας οπου,εκτος αλλων,υπαρχει κουμπι Δηλωση Αλγοριθμου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι “Δηλωση Αλγοριθμου,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει σε μια φορμα οπου υπαρχει μια φορμα με πεδια:[Input][Label Ποσοστο συμμετοχης Θεωριας][Λιστα με τιμες απο 0% - 100%],[input][Label Ποσοστο συμμετοχης εργαστηριου][Λιστα με τιμες απο 0% εως 100%] και [Κουμπι Αποθηκευση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">συμπληρωσω το input για το ποσοστο συμμετοχης θεωριας </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">συμπληρωσω το input για το ποσοστο συμμετοχης εργαστηριου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Αποθηκευση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Καινουριος Αλγοριθμος Υπολογισμου Τελικου Βαθμου][χ% * βαθμος θεωριας]+[y%*βαθμος εργαστηριου][Κουμπι Αποθηκευση][Κουμπι Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Αποθηκευση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα αποθηκευει τον καινουριο αλγοριθμο.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Χρηστης αλλαζει τον κωδικο του.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως χρηστης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω στο μενου την επιλογη “Ο λογαριαμος μου”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας του λογαριαμου μου οπου υπαρχει φορμα με πεδια Νεος Κωδικος και Επαναληψη Κωδικου και το κουμπι Αποθηκευση Κωδικου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">γεμισω τα πεδια Νεος Κωδικος και Επαναληψη Κωδικου με το νεο μου κωδικο</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Ο κωδικος αλλαξε],με κανει logout και μου ζηταει να ξαναμπω με τον καινουριο κωδικο.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Καθηγητης Εργαστηριου προσθετη φοιτητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω στο μενου την επιλογη “Τα Μαθηματα Μου”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">επιλεξω τον τυπο του μαθηματος Εργαστηριο,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα μου εμφανιζει ολα τα εργαστηρια που διδασκω.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">επιλεξω ενα εργαστηριο απο την λιστα,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας του εργαστηριου οπου,εκτος αλλων,υπαρχει κουμπι “Προσθηκη Φοιτιτη”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι “Προσθηκη Φοιτιτη”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει λιστα με φοιτητες που παρακολουθουν την θεωρια αλλα δεν παρακολουθουν κανενα εργαστηριο σε μορφη [Στοιχεια Φοιτητη][Προσθηκη Στο Εργαστηριο]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Προσθηη Στο Εργαστηριο,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Φοιτητη] [Κουμπι Προσθηκη] [Κουμπι Ακυρωση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Προσθηκη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Φοιτητη] προστεθηκε επιτυχως.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω/αφαιρω απουσιες στους φοιτιτες που παρακολουθουν το εργαστηριο </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Καθηγητης Εργαστηριου αυξανη τις απουσιες καποιου φοιτητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας του εργαστηριου οπου,εκτος αλλων,υπαρχει κουμπι “Απουσιες”.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Απουσιες,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μια λιστα με ολους του φοιτητες  που παρακολουθουν το εργαστηριο σε μορφη [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Κουμπι Αυξηση Απουσιων][Μειωση Απουσιων].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω το κουμπι Αυξηση Απουσιων/Μειωση Απουσιων σε εναν φοιτητη,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Αποθηκευση]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">πατησω αποθηκευση,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων] Επιτυχης Αποθηκευση.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως φοιτητης,θελω να εχω δυνατοτητα να δηλωνω μαθηματα.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Φοιτητης δηλωνει μαθηματα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> οτι ειμαι συνδεδεμενος στο συστημα ωσ φοιτιτης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατησω “Δηλωση Μαθηματων” απο το μενου,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">μου ανοιγει φορμα δηλωσης μαθηματων με τη λιστα των μαθηματων που μπορω να δηλωσω οπου διπλα σε καθε μαθημα θεωριας υπαρχει ενα checkbox [Θελω Να Παρακολουθησω][Λιστα Με Εργαστηρια Της Θεωριας][Κουμπι Επιβεβαιωσης]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">συμπληρωσω τα μαθηματα που θελω να παρακολουθησω</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταω το κουμπι “Τελικη Υποβολη”,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα θα υποβαλη τη δηλωση μου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Προσθηκη καινουριου μαθηματος</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως διαχεριστης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">παταων στο μενου το κουμπι Προσθηκη Μαθηματος,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα μου ανοιγει μια φορμα προσθηκης καινουριου μαθηματος.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> γεμισω τα πεδια την φορμα – ονομα μαθηματος,εξαμηνο,αν εχει εργαστηριακο μερος(αν ειναι μαθημα θεωριας),Ονομα καθηγητη που διδασκει την θεωρια/εργαστηριο,τα προαπαιτοθμενα μαθηματα θεωριας(αν ειναι θεωρια)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Και</t>
@@ -924,34 +2553,106 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> μόλις πατήσω πάνω στο όνομα κάποιου φοιτητή </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τότε</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> το σύστημα  μου επιτρέπει να καταχωρησω τη βαθμολογία του</t>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατησω το κουμπι προσθηκη</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα εμφανιζει μηνυμα της μορφης </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Ονομα Μαθηματος]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> προστεθηκε επιτυχως.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως καθηγητης που διδασκω καποια θεωρια,θελω να εχω δυνατοτητα να προσθετω προαπαιτουμενα μαθηματα της θεωριας μου. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Προσθηκη προαπαιτουμενου για θεωρια απο καθηγητη.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τοτε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας της θεωριας οπου,εκτος αλλων,υπαρχει κουμπι Προσθηκη Προαπαιτουμενων.</t>
     </r>
   </si>
   <si>
@@ -974,115 +2675,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> πατήσω το κουμπί “Επιβεβαίωση Βαθμολογίας “</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τότε</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> το συστημα αποθηκεύει τη βαθμολογία του φοιτητή</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">US06</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Σενάριο: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Ο διαχειριστης παραγει εναν αριθμο κωδικων.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Δεδομένου </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">οτι ειμαι συνδεδεμενος ως διαχειριστης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Όταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">παταων στο μενου το κουμπι Φοιτητες,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
+      <t xml:space="preserve"> πατησω το κουμπι Προσθηκη Προαπαιτουμενων,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Τοτε </t>
@@ -1091,1537 +2694,11 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας φοιτητων οπου υπαρχει φορμα παραγωγης κωδικων φοιτητων με πεδια ετος,αριθμος κωδικων φοιτητων,prefix και το κουμπι Παραγωγη</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">γεμισω τα πεδια ετος,αριθμος κωδικων φοιτητων,prefix </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Και </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Παραγωγη,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [χ κωδικοι δημιουργηθηκαν][διαδρομη για το ονομα αρχειου με τους κωδικους]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο μαθημα,θελω να εχω δυνατοτητα να οριζω τον αλγοριθμο βαση του οποιου θα υπολογιζεται ο τελικος βαθμος των φοιτητων στο μαθημα. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Σενάριο: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Ο καθηγητης οριζει τον αλγοριθμο υπολογισμου του τελικου βαθμου.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Δεδομένου </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">επιλεγω απο το μενου την επιλογη Τα μαθηματα μου</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας των μαθηματων μου οπου υπαρχει μια λιστα με τα μαθηματα που διδασκω και μια φορμα με πεδια:[Input][Label Ποσοστο συμμετοχης Θεωριας][Λιστα με τιμες απο 0% - 100%],[input][Label Ποσοστο συμμετοχης εργαστηριου][Λιστα με τιμες απο 0% εως 100%] και [Κουμπι Αποθηκευση]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">διαλεξω καποιο μαθηματα απο τη λιστα</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Και </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">συμπληρωσω το input για το ποσοστο συμμετοχης θεωριας </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Και </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">συμπληρωσω το input για το ποσοστο συμμετοχης εργαστηριου</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Και </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Αποθηκευση,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Καινουριος Αλγοριθμος Υπολογισμου Τελικου Βαθμου][χ% * βαθμος θεωριας]+[y%*βαθμος εργαστηριου][Κουμπι Αποθηκευση][Κουμπι Ακυρωση]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Αποθηκευση,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα αποθηκευει τον καινουριο αλγοριθμο.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Σενάριο: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Χρηστης αλλαζει τον κωδικο του.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Δεδομένου </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως χρηστης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Όταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">παταω στο μενου την επιλογη “Ο λογαριαμος μου”,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τότε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας του λογαριαμου μου οπου υπαρχει φορμα με πεδια Νεος Κωδικος και Επαναληψη Κωδικου και το κουμπι Αποθηκευση Κωδικου.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">γεμισω τα πεδια Νεος Κωδικος και Επαναληψη Κωδικου με το νεο μου κωδικο</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Ο κωδικος αλλαξε],με κανει logout και μου ζηταει να ξαναμπω με τον καινουριο κωδικο.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Σενάριο: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Καθηγητης Εργαστηριου προσθετη φοιτητη.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Δεδομένου </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Όταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">παταω στο μενου την επιλογη “Τα Εργαστηρια Μου”,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τότε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας των εργαστηριων που διδασκω οπου υπαρχει λιστα με τα εργαστηρια μου.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">επιλεξω ενα εργαστηριο απο την λιστα,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου και μια λιστα με ολους του φοιτιτες που παρακολουθουν τη θεωρια αλλα δεν βρισκονται στο εργαστηριο που διαλεξα σε μορφη [Ονομα Χρηστη Φοιτιτ][Προσθηκη στο εργαστηριο]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Προσθηκη,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Φοιτητη] [Κουμπι Προσθηκη] [Κουμπι Ακυρωση]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [Στοιχεια Φοιτητη] προστεθηκε επιτυχως.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως καθηγητης που διδασκω καποιο εργαστηριο,θελω να εχω δυνατοτητα να προσθετω/αφαιρω απουσιες στους φοιτιτες που παρακολουθουν το εργαστηριο </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Σενάριο: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Καθηγητης Εργαστηριου αυξανη τις απουσιες καποιου φοιτητη.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου οπου υπαρχει μια λιστα με ολους του φοιτητες της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Κουμπι Αυξηση Απουσιων][Μειωση Απουσιων].</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Αυξηση Απουσιων σε εναν φοιτητη,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Κουμπι Αυξηση Απουσιων][Ακυρωση]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Αυξηση Απουσιων,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων] Απουσιες Αυξηθηκαν κατα ενα.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Σενάριο: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Καθηγητης Εργαστηριου μειωνει τις απουσιες καποιου φοιτητη.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει παραθυρο με τα στοιχεια του εργαστηριου οπου υπαρχει μια λιστα με ολους του φοιτητες της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων][Κουμπι Αυξηση Απουσιων][Κουμπι Μειωση Απουσιων].</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">πατησω το κουμπι Μειωση Απουσιων,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Κουμπι Μειωση Απουσιων][Ακυρωση]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα εμφανιζει μηνυμα της μορφης [ΑΜ][Ονομα Φοιτητη][Συνολο Απουσιων] Απουσιες Μειωθηκαν κατα ενα.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως φοιτητης,θελω να εχω δυνατοτητα να δηλωνω μαθηματα.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Σενάριο: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Φοιτητης δηλωνει μαθηματα.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Δεδομένου</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> οτι ειμαι συνδεδεμενος στο συστημα ωσ φοιτιτης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> βαζω πατησω “Δηλωση Μαθηματων” απο το μενου,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Και </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">μου ανηγει την φορμα δηλωσης μαθηματων με τη λιστα των μαθηματων που μπορω να δηλωσω οπου διπλα στα μαθηματα θεωριας υπαρχει ενα checkbox [Θελω Να Παρακολουθησω],ενω διπλα στα μαθηματα εργαστηριων η λιστα των εργαστηριων με τη μορφη [Ονομα Εργαστηριου][Ωρα][Ελευθερες θεσεις\Συνολικες Θεσεις][Κουμπι Επιβεβαιωσης].Και ενα κουμπι “Τελικη Υποβολη”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">συμπληρωσω τα μαθηματα που θελω να παρακολουθησω</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Και </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">παταω το κουμπι “Τελικη Υποβολη”,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα υποβαλη τη δηλωση μου.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Σενάριο: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Προσθηκη καινουριου μαθηματος</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Δεδομένου </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">οτι ειμαι συνδεδεμενος στο συστημα ως διαχεριστης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Όταν </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">παταων στο μενου το κουμπι Επεξεργασιας Μαθηματων</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">το συστημα μου ανοιγει το περιβαλλον επεξεργασιας μαθηματων οπου υπαρχει (1) λιστα με τα υπαρχοντα μαθηματα σε μορφη </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Ονομα Μαθηματος][Διαγραφη][Επεξεργασιας]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> και (2) φορμα προσθηκης καινουριου μαθηματος.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> γεμισω την φορμα – ονομα μαθηματος,εξαμηνο,αν εχει εργαστηριακο μερος(αν ειναι μαθημα θεωριας),Ονομα καθηγητη που διδασκει την θεωρια/εργαστηριο,τα προαπαιτοθμενα μαθηματα θεωριας(αν ειναι θεωρια)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Και</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> πατησω το κουμπι προσθηκη</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> το συστημα εμφανιζει μηνυμα της μορφης </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Ονομα Μαθηματος]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> προστεθηκε επιτυχως.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ως καθηγητης που διδασκω καποια θεωρια,θελω να εχω δυνατοτητα να προσθετω προαπαιτουμενα μαθηματα της θεωριας μου. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Σενάριο: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-      </rPr>
-      <t xml:space="preserve">Προσθηκη προαπαιτουμενου για θεωρια απο καθηγητη.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Δεδομενου</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> οτι ειμαι συνδεδεμενος στο συστημα ως καθηγητης,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> παταω στο μενου το κουμπι “Επεξεργασια Θεωριας”,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> το συστημα με καθοδηγει στο περιβαλλον επεξεργασιας των μαθηματων θεωριας που διδασκω,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> διαλεξω ενα μαθημα θεωριας που διδασκω,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> το συστημα εμφανιζει πληροφοριες σχετικα με το μαθηματα και οπου υπαρχει το κουμπι “Προσθηκη Προαπαιτουμενου”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Οταν</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> πατησω το κουμπι “Προσθηκη Προαπαιτουμενου”,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Τοτε</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> το συστημα εμφανιζει μια λιστα με θεωριες,οι οποιες μπορουν να δηλωθουν ως προαπαιτουμενα της θεωριας που διδασκω</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το συστημα μου εμφανιζει μια λιστα με ολες τις θεωριες που μπορουν να γινουν προαπαιτουμενα της θεωριας που διαλεξα.</t>
     </r>
   </si>
   <si>
@@ -3235,7 +3312,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
@@ -3468,8 +3545,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3565,7 +3642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="86.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="183.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
         <v>49</v>
       </c>
@@ -3579,7 +3656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="123.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
         <v>52</v>
       </c>
@@ -3593,7 +3670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="114" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="199.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
@@ -3621,7 +3698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="92.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="145.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
         <v>61</v>
       </c>
@@ -3635,7 +3712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="119.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="186.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
         <v>64</v>
       </c>
@@ -3764,8 +3841,8 @@
   </sheetPr>
   <dimension ref="A2:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B141" activeCellId="0" sqref="B141"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B142" activeCellId="0" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3890,7 +3967,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="35" t="s">
         <v>93</v>
       </c>
@@ -3918,658 +3995,659 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="37" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="27" t="s">
+    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="29" t="s">
-        <v>108</v>
+      <c r="B43" s="28" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="29"/>
-      <c r="B46" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="30" t="s">
+      <c r="B46" s="30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B68" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="39"/>
-    </row>
-    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="39"/>
-      <c r="B64" s="40" t="s">
+      <c r="C68" s="39"/>
+    </row>
+    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="39"/>
+      <c r="B69" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="39"/>
-    </row>
-    <row r="65" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="39"/>
-      <c r="B65" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="39"/>
-    </row>
-    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="39"/>
-      <c r="B66" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="39"/>
-    </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="39"/>
-      <c r="B67" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="39"/>
-    </row>
-    <row r="68" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="30"/>
-      <c r="B68" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="39"/>
-    </row>
-    <row r="69" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="39"/>
-      <c r="B69" s="30" t="s">
-        <v>130</v>
-      </c>
       <c r="C69" s="39"/>
     </row>
-    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="39"/>
-      <c r="B70" s="30" t="s">
-        <v>122</v>
+      <c r="B70" s="28" t="s">
+        <v>132</v>
       </c>
       <c r="C70" s="39"/>
     </row>
-    <row r="71" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="39"/>
-      <c r="B71" s="30" t="s">
-        <v>131</v>
+      <c r="B71" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="C71" s="39"/>
     </row>
     <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
+      <c r="B72" s="29" t="s">
+        <v>134</v>
+      </c>
       <c r="C72" s="39"/>
     </row>
-    <row r="73" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="30"/>
+      <c r="B73" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="39"/>
+    </row>
+    <row r="74" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="39"/>
-      <c r="B74" s="40" t="s">
-        <v>78</v>
-      </c>
+      <c r="B74" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="39"/>
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="39"/>
-      <c r="B75" s="28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="39"/>
+    </row>
+    <row r="76" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="39"/>
-      <c r="B76" s="29" t="s">
-        <v>133</v>
-      </c>
+      <c r="B76" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="39"/>
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="39"/>
-      <c r="B77" s="29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="30"/>
-      <c r="B78" s="29" t="s">
-        <v>135</v>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+    </row>
+    <row r="78" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="39"/>
-      <c r="B79" s="30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="39"/>
-      <c r="B80" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="39"/>
-      <c r="B81" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="39"/>
-      <c r="B82" s="30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="39"/>
-      <c r="B83" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="39"/>
-      <c r="B84" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B85" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="C85" s="39"/>
-    </row>
-    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="39"/>
-      <c r="B86" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" s="39"/>
-    </row>
-    <row r="87" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="39"/>
+      <c r="B85" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="30"/>
+      <c r="B86" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="39"/>
-      <c r="B87" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C87" s="39"/>
-    </row>
-    <row r="88" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="39"/>
-      <c r="B88" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C88" s="39"/>
-    </row>
-    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="39"/>
-      <c r="B89" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C89" s="39"/>
-    </row>
-    <row r="90" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="30"/>
-      <c r="B90" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C90" s="39"/>
+      <c r="B89" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="39"/>
+      <c r="B90" s="30" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="39"/>
       <c r="B91" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C91" s="39"/>
-    </row>
-    <row r="92" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="39"/>
       <c r="B92" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C92" s="39"/>
-    </row>
-    <row r="93" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="39"/>
-      <c r="B93" s="30" t="s">
-        <v>144</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>151</v>
       </c>
       <c r="C93" s="39"/>
     </row>
-    <row r="94" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="39"/>
-      <c r="B94" s="30" t="s">
-        <v>145</v>
+      <c r="B94" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="C94" s="39"/>
     </row>
-    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="39"/>
-      <c r="B95" s="30" t="s">
-        <v>146</v>
+      <c r="B95" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="C95" s="39"/>
     </row>
-    <row r="96" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="39"/>
-      <c r="B96" s="30" t="s">
-        <v>147</v>
+      <c r="B96" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="C96" s="39"/>
     </row>
-    <row r="97" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="39"/>
-      <c r="B97" s="28" t="s">
-        <v>148</v>
+      <c r="B97" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="C97" s="39"/>
     </row>
-    <row r="98" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="39"/>
       <c r="B98" s="29" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C98" s="39"/>
     </row>
-    <row r="99" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="39"/>
       <c r="B99" s="29" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C99" s="39"/>
     </row>
-    <row r="100" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="39"/>
       <c r="B100" s="29" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C100" s="39"/>
     </row>
-    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="39"/>
-      <c r="B101" s="30" t="s">
-        <v>136</v>
+    <row r="101" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="30"/>
+      <c r="B101" s="29" t="s">
+        <v>153</v>
       </c>
       <c r="C101" s="39"/>
     </row>
-    <row r="102" customFormat="false" ht="101.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="39"/>
       <c r="B102" s="30" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C102" s="39"/>
     </row>
-    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="39"/>
       <c r="B103" s="30" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C103" s="39"/>
     </row>
-    <row r="104" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="39"/>
       <c r="B104" s="30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C104" s="39"/>
     </row>
-    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="39"/>
       <c r="B105" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C105" s="39"/>
     </row>
-    <row r="106" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="39"/>
       <c r="B106" s="30" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C106" s="39"/>
     </row>
-    <row r="108" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="38" t="s">
+    <row r="107" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="39"/>
+      <c r="B107" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107" s="39"/>
+    </row>
+    <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B108" s="37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="39"/>
-      <c r="B109" s="40" t="s">
-        <v>78</v>
+      <c r="B109" s="37" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="39"/>
-      <c r="B110" s="28" t="s">
-        <v>154</v>
+      <c r="B110" s="40" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="39"/>
-      <c r="B111" s="29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="39"/>
-      <c r="B112" s="30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="132.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="39"/>
       <c r="B113" s="30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="39"/>
       <c r="B114" s="30" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="39"/>
       <c r="B115" s="30" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="39"/>
       <c r="B116" s="30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="39"/>
-      <c r="B117" s="30"/>
-    </row>
-    <row r="118" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="38" t="s">
+      <c r="B117" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="39"/>
+      <c r="B118" s="30"/>
+    </row>
+    <row r="119" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B118" s="41" t="s">
+      <c r="B119" s="41" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="39"/>
-      <c r="B119" s="40" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="39"/>
-      <c r="B120" s="28" t="s">
-        <v>161</v>
+      <c r="B120" s="40" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="39"/>
-      <c r="B121" s="29" t="s">
-        <v>162</v>
+      <c r="B121" s="28" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="39"/>
       <c r="B122" s="29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="39"/>
-      <c r="B123" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="39"/>
-      <c r="B124" s="42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="39"/>
-      <c r="B125" s="30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="39"/>
       <c r="B126" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="39"/>
+      <c r="B127" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B128" s="41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="39"/>
-      <c r="B129" s="40" t="s">
-        <v>78</v>
+      <c r="B129" s="41" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="39"/>
-      <c r="B130" s="28" t="s">
-        <v>169</v>
+      <c r="B130" s="40" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="35" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="35" t="s">
+      <c r="A131" s="39"/>
+      <c r="B131" s="28" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="30" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="35" t="s">
+        <v>182</v>
+      </c>
+    </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/User_Stories.xlsx
+++ b/User_Stories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Διεργασία" sheetId="1" state="visible" r:id="rId2"/>
@@ -2232,16 +2232,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="161"/>
     </font>
     <font>
       <b val="true"/>
@@ -2737,11 +2740,14 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.79"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,18 +2976,18 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="51.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="12.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="14" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="14" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" s="15" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3252,15 +3258,15 @@
   </sheetPr>
   <dimension ref="A2:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="82.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="23" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="23" width="11.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,17 +3379,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="35" t="s">
         <v>88</v>
       </c>
@@ -3952,8 +3958,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>